--- a/Code/Results/Cases/Case_3_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.21150635524226</v>
+        <v>21.21150635524225</v>
       </c>
       <c r="C2">
         <v>11.44823706431904</v>
       </c>
       <c r="D2">
-        <v>6.87076077294024</v>
+        <v>6.870760772940208</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.34017121965142</v>
+        <v>63.34017121965147</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.56491150471029</v>
+        <v>13.56491150471032</v>
       </c>
       <c r="J2">
-        <v>17.63074785150653</v>
+        <v>17.63074785150656</v>
       </c>
       <c r="K2">
-        <v>15.95471531161366</v>
+        <v>15.95471531161363</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.60689781889962</v>
+        <v>19.60689781889976</v>
       </c>
       <c r="C3">
-        <v>10.61423471202475</v>
+        <v>10.61423471202474</v>
       </c>
       <c r="D3">
-        <v>6.579574957710421</v>
+        <v>6.579574957710419</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.43727173965818</v>
+        <v>59.43727173965829</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>12.73578581863227</v>
       </c>
       <c r="J3">
-        <v>16.32078562634817</v>
+        <v>16.32078562634828</v>
       </c>
       <c r="K3">
-        <v>14.76069763535364</v>
+        <v>14.7606976353537</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.58123880182053</v>
+        <v>18.58123880182037</v>
       </c>
       <c r="C4">
-        <v>10.08242890630474</v>
+        <v>10.08242890630473</v>
       </c>
       <c r="D4">
-        <v>6.399127218729056</v>
+        <v>6.399127218729046</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.97960446047505</v>
+        <v>56.97960446047461</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>12.21753894863965</v>
+        <v>12.2175389486396</v>
       </c>
       <c r="J4">
-        <v>15.48285685974792</v>
+        <v>15.48285685974773</v>
       </c>
       <c r="K4">
-        <v>13.99846388084362</v>
+        <v>13.99846388084357</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.15274318333478</v>
+        <v>18.15274318333481</v>
       </c>
       <c r="C5">
-        <v>9.860518431791789</v>
+        <v>9.860518431791764</v>
       </c>
       <c r="D5">
-        <v>6.325127037088604</v>
+        <v>6.32512703708865</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.96260429945826</v>
+        <v>55.96260429945831</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>12.00405089558946</v>
       </c>
       <c r="J5">
-        <v>15.13260622280876</v>
+        <v>15.13260622280879</v>
       </c>
       <c r="K5">
-        <v>13.68019465513322</v>
+        <v>13.68019465513317</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.08094598760183</v>
+        <v>18.0809459876018</v>
       </c>
       <c r="C6">
-        <v>9.823350230126373</v>
+        <v>9.823350230126481</v>
       </c>
       <c r="D6">
-        <v>6.312810056483281</v>
+        <v>6.312810056483317</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.79280008908968</v>
+        <v>55.79280008908975</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.96846398461048</v>
+        <v>11.9684639846105</v>
       </c>
       <c r="J6">
         <v>15.07390739580024</v>
       </c>
       <c r="K6">
-        <v>13.62687497237003</v>
+        <v>13.62687497237004</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.57550304908218</v>
+        <v>18.57550304908217</v>
       </c>
       <c r="C7">
-        <v>10.07945747056341</v>
+        <v>10.07945747056334</v>
       </c>
       <c r="D7">
-        <v>6.398131168120812</v>
+        <v>6.398131168120856</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.96595142899318</v>
+        <v>56.96595142899299</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>12.21466902459423</v>
+        <v>12.2146690245942</v>
       </c>
       <c r="J7">
-        <v>15.47816925991271</v>
+        <v>15.47816925991266</v>
       </c>
       <c r="K7">
-        <v>13.99420299328728</v>
+        <v>13.99420299328725</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.66638998756954</v>
+        <v>20.66638998756935</v>
       </c>
       <c r="C8">
-        <v>11.16461610912616</v>
+        <v>11.16461610912612</v>
       </c>
       <c r="D8">
-        <v>6.770669335233083</v>
+        <v>6.770669335233002</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.00704108316077</v>
+        <v>62.00704108316049</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.2809122180235</v>
+        <v>13.28091221802346</v>
       </c>
       <c r="J8">
-        <v>17.18583341313523</v>
+        <v>17.18583341313507</v>
       </c>
       <c r="K8">
-        <v>15.54884452462496</v>
+        <v>15.5488445246249</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.4654752611664</v>
+        <v>24.46547526116658</v>
       </c>
       <c r="C9">
-        <v>13.14846586947971</v>
+        <v>13.14846586947972</v>
       </c>
       <c r="D9">
-        <v>7.49126803429625</v>
+        <v>7.491268034296147</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.42461213866582</v>
+        <v>71.42461213866595</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.33390475121464</v>
+        <v>15.33390475121468</v>
       </c>
       <c r="J9">
-        <v>20.2853255804382</v>
+        <v>20.28532558043833</v>
       </c>
       <c r="K9">
-        <v>18.3840004904753</v>
+        <v>18.38400049047528</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.10608231790709</v>
+        <v>27.10608231790711</v>
       </c>
       <c r="C10">
-        <v>14.53875737464111</v>
+        <v>14.53875737464084</v>
       </c>
       <c r="D10">
-        <v>8.020926193529302</v>
+        <v>8.020926193529208</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.10689178879537</v>
+        <v>78.10689178879487</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.98661757040415</v>
+        <v>16.98661757040411</v>
       </c>
       <c r="J10">
-        <v>22.43924440845171</v>
+        <v>22.43924440845167</v>
       </c>
       <c r="K10">
-        <v>20.36572093079228</v>
+        <v>20.36572093079229</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.28409454430665</v>
+        <v>28.28409454430683</v>
       </c>
       <c r="C11">
-        <v>15.16250673470887</v>
+        <v>15.16250673470897</v>
       </c>
       <c r="D11">
-        <v>8.263982308743723</v>
+        <v>8.263982308743854</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.11353295973746</v>
+        <v>81.11353295973815</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.72523182229427</v>
+        <v>17.72523182229434</v>
       </c>
       <c r="J11">
-        <v>23.40039460378011</v>
+        <v>23.40039460378028</v>
       </c>
       <c r="K11">
-        <v>21.25345540826929</v>
+        <v>21.25345540826928</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.72783810685488</v>
+        <v>28.72783810685491</v>
       </c>
       <c r="C12">
-        <v>15.39807596893742</v>
+        <v>15.39807596893751</v>
       </c>
       <c r="D12">
-        <v>8.356557828375776</v>
+        <v>8.356557828375703</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.24943661796851</v>
+        <v>82.24943661796857</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.00369802441007</v>
+        <v>18.00369802441011</v>
       </c>
       <c r="J12">
-        <v>23.76251755030033</v>
+        <v>23.76251755030037</v>
       </c>
       <c r="K12">
-        <v>21.58850704267861</v>
+        <v>21.58850704267862</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.63235600834544</v>
+        <v>28.63235600834552</v>
       </c>
       <c r="C13">
-        <v>15.34735859847276</v>
+        <v>15.34735859847275</v>
       </c>
       <c r="D13">
-        <v>8.33659184986062</v>
+        <v>8.33659184986063</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>82.00487675828104</v>
+        <v>82.0048767582815</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.94376781331098</v>
+        <v>17.94376781331106</v>
       </c>
       <c r="J13">
-        <v>23.68459448073364</v>
+        <v>23.68459448073368</v>
       </c>
       <c r="K13">
-        <v>21.51638134049477</v>
+        <v>21.5163813404948</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.32064208616418</v>
+        <v>28.32064208616436</v>
       </c>
       <c r="C14">
-        <v>15.18189575459639</v>
+        <v>15.1818957545964</v>
       </c>
       <c r="D14">
-        <v>8.271586269803491</v>
+        <v>8.271586269803494</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.20702314205417</v>
+        <v>81.20702314205447</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.74816170705881</v>
+        <v>17.74816170705879</v>
       </c>
       <c r="J14">
-        <v>23.43021814386855</v>
+        <v>23.43021814386863</v>
       </c>
       <c r="K14">
-        <v>21.28103698571904</v>
+        <v>21.28103698571902</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.12943629552865</v>
+        <v>28.12943629552869</v>
       </c>
       <c r="C15">
         <v>15.08048356279551</v>
       </c>
       <c r="D15">
-        <v>8.231846145416991</v>
+        <v>8.231846145416934</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.71804344896502</v>
+        <v>80.71804344896493</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.62820940022244</v>
+        <v>17.62820940022249</v>
       </c>
       <c r="J15">
         <v>23.27419330048982</v>
       </c>
       <c r="K15">
-        <v>21.13676564562225</v>
+        <v>21.13676564562222</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.0287094789819</v>
+        <v>27.02870947898173</v>
       </c>
       <c r="C16">
-        <v>14.49786877548923</v>
+        <v>14.49786877548913</v>
       </c>
       <c r="D16">
-        <v>8.005102847442771</v>
+        <v>8.005102847442737</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.90990156911565</v>
+        <v>77.90990156911518</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.93813545267712</v>
+        <v>16.93813545267705</v>
       </c>
       <c r="J16">
-        <v>22.37612310639997</v>
+        <v>22.37612310639984</v>
       </c>
       <c r="K16">
-        <v>20.30749816978667</v>
+        <v>20.30749816978664</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.34814619857654</v>
+        <v>26.34814619857661</v>
       </c>
       <c r="C17">
-        <v>14.13862545056969</v>
+        <v>14.13862545056993</v>
       </c>
       <c r="D17">
-        <v>7.866690620331205</v>
+        <v>7.866690620331237</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.1800347790949</v>
+        <v>76.18003477909518</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.51184569719819</v>
+        <v>16.5118456971982</v>
       </c>
       <c r="J17">
-        <v>21.8209475710865</v>
+        <v>21.82094757108663</v>
       </c>
       <c r="K17">
-        <v>19.7958034166474</v>
+        <v>19.79580341664747</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.95444880275348</v>
+        <v>25.95444880275354</v>
       </c>
       <c r="C18">
-        <v>13.93113520988727</v>
+        <v>13.93113520988737</v>
       </c>
       <c r="D18">
-        <v>7.787261337136282</v>
+        <v>7.787261337136251</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.18178147143466</v>
+        <v>75.18178147143463</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.26536403716109</v>
+        <v>16.26536403716107</v>
       </c>
       <c r="J18">
-        <v>21.49980771543086</v>
+        <v>21.49980771543091</v>
       </c>
       <c r="K18">
-        <v>19.50013364274106</v>
+        <v>19.50013364274107</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.82073535317115</v>
+        <v>25.82073535317112</v>
       </c>
       <c r="C19">
-        <v>13.86071758566596</v>
+        <v>13.86071758566593</v>
       </c>
       <c r="D19">
-        <v>7.760393061179534</v>
+        <v>7.760393061179413</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.18166972627683</v>
+        <v>16.1816697262768</v>
       </c>
       <c r="J19">
-        <v>21.39074025295865</v>
+        <v>21.39074025295858</v>
       </c>
       <c r="K19">
-        <v>19.39976858147201</v>
+        <v>19.39976858147187</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.42082022213694</v>
+        <v>26.42082022213685</v>
       </c>
       <c r="C20">
-        <v>14.17695276330221</v>
+        <v>14.17695276330225</v>
       </c>
       <c r="D20">
-        <v>7.881404538190824</v>
+        <v>7.881404538190734</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.36450796962893</v>
+        <v>76.36450796962848</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.55735419852919</v>
+        <v>16.55735419852923</v>
       </c>
       <c r="J20">
-        <v>21.88022952745967</v>
+        <v>21.88022952745956</v>
       </c>
       <c r="K20">
-        <v>19.85040891885194</v>
+        <v>19.85040891885197</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.41225461063873</v>
+        <v>28.41225461063886</v>
       </c>
       <c r="C21">
         <v>15.23050769267104</v>
       </c>
       <c r="D21">
-        <v>8.290663293156117</v>
+        <v>8.290663293156229</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.44142396290562</v>
+        <v>81.44142396290614</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.80564329139739</v>
+        <v>17.8056432913975</v>
       </c>
       <c r="J21">
-        <v>23.50497704650289</v>
+        <v>23.50497704650302</v>
       </c>
       <c r="K21">
-        <v>21.35018569996147</v>
+        <v>21.35018569996151</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.70074426339926</v>
+        <v>29.70074426339908</v>
       </c>
       <c r="C22">
-        <v>15.91578552380443</v>
+        <v>15.91578552380432</v>
       </c>
       <c r="D22">
-        <v>8.561414957755721</v>
+        <v>8.561414957755762</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.74551287629032</v>
+        <v>84.74551287629015</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.61472551199258</v>
+        <v>18.61472551199253</v>
       </c>
       <c r="J22">
-        <v>24.5566324977688</v>
+        <v>24.55663249776864</v>
       </c>
       <c r="K22">
-        <v>22.32443739880448</v>
+        <v>22.32443739880441</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.01385518206201</v>
+        <v>29.013855182062</v>
       </c>
       <c r="C23">
-        <v>15.5500964647796</v>
+        <v>15.55009646477974</v>
       </c>
       <c r="D23">
-        <v>8.416515933322488</v>
+        <v>8.416515933322442</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.98246863289874</v>
+        <v>82.98246863289843</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.18325778905063</v>
+        <v>18.1832577890506</v>
       </c>
       <c r="J23">
-        <v>23.99594897436099</v>
+        <v>23.995948974361</v>
       </c>
       <c r="K23">
-        <v>21.80466441291572</v>
+        <v>21.8046644129157</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.38797194479704</v>
+        <v>26.38797194479698</v>
       </c>
       <c r="C24">
-        <v>14.15962800931062</v>
+        <v>14.15962800931046</v>
       </c>
       <c r="D24">
-        <v>7.87475193858697</v>
+        <v>7.874751938586925</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.28111940989166</v>
+        <v>76.28111940989177</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.53678422046004</v>
+        <v>16.53678422046006</v>
       </c>
       <c r="J24">
-        <v>21.85343432737509</v>
+        <v>21.85343432737503</v>
       </c>
       <c r="K24">
-        <v>19.8257264738075</v>
+        <v>19.82572647380745</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.46690687500318</v>
+        <v>23.46690687500325</v>
       </c>
       <c r="C25">
-        <v>12.62529839640959</v>
+        <v>12.62529839640975</v>
       </c>
       <c r="D25">
-        <v>7.296848096597611</v>
+        <v>7.296848096597533</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.92325139425328</v>
+        <v>68.9232513942534</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.76234540792917</v>
+        <v>14.76234540792918</v>
       </c>
       <c r="J25">
-        <v>19.4708345786014</v>
+        <v>19.47083457860144</v>
       </c>
       <c r="K25">
-        <v>17.63718380860224</v>
+        <v>17.63718380860217</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.21150635524225</v>
+        <v>21.21150635524226</v>
       </c>
       <c r="C2">
         <v>11.44823706431904</v>
       </c>
       <c r="D2">
-        <v>6.870760772940208</v>
+        <v>6.87076077294024</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.34017121965147</v>
+        <v>63.34017121965142</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.56491150471032</v>
+        <v>13.56491150471029</v>
       </c>
       <c r="J2">
-        <v>17.63074785150656</v>
+        <v>17.63074785150653</v>
       </c>
       <c r="K2">
-        <v>15.95471531161363</v>
+        <v>15.95471531161366</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.60689781889976</v>
+        <v>19.60689781889962</v>
       </c>
       <c r="C3">
-        <v>10.61423471202474</v>
+        <v>10.61423471202475</v>
       </c>
       <c r="D3">
-        <v>6.579574957710419</v>
+        <v>6.579574957710421</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.43727173965829</v>
+        <v>59.43727173965818</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>12.73578581863227</v>
       </c>
       <c r="J3">
-        <v>16.32078562634828</v>
+        <v>16.32078562634817</v>
       </c>
       <c r="K3">
-        <v>14.7606976353537</v>
+        <v>14.76069763535364</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.58123880182037</v>
+        <v>18.58123880182053</v>
       </c>
       <c r="C4">
-        <v>10.08242890630473</v>
+        <v>10.08242890630474</v>
       </c>
       <c r="D4">
-        <v>6.399127218729046</v>
+        <v>6.399127218729056</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.97960446047461</v>
+        <v>56.97960446047505</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>12.2175389486396</v>
+        <v>12.21753894863965</v>
       </c>
       <c r="J4">
-        <v>15.48285685974773</v>
+        <v>15.48285685974792</v>
       </c>
       <c r="K4">
-        <v>13.99846388084357</v>
+        <v>13.99846388084362</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.15274318333481</v>
+        <v>18.15274318333478</v>
       </c>
       <c r="C5">
-        <v>9.860518431791764</v>
+        <v>9.860518431791789</v>
       </c>
       <c r="D5">
-        <v>6.32512703708865</v>
+        <v>6.325127037088604</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.96260429945831</v>
+        <v>55.96260429945826</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>12.00405089558946</v>
       </c>
       <c r="J5">
-        <v>15.13260622280879</v>
+        <v>15.13260622280876</v>
       </c>
       <c r="K5">
-        <v>13.68019465513317</v>
+        <v>13.68019465513322</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.0809459876018</v>
+        <v>18.08094598760183</v>
       </c>
       <c r="C6">
-        <v>9.823350230126481</v>
+        <v>9.823350230126373</v>
       </c>
       <c r="D6">
-        <v>6.312810056483317</v>
+        <v>6.312810056483281</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.79280008908975</v>
+        <v>55.79280008908968</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.9684639846105</v>
+        <v>11.96846398461048</v>
       </c>
       <c r="J6">
         <v>15.07390739580024</v>
       </c>
       <c r="K6">
-        <v>13.62687497237004</v>
+        <v>13.62687497237003</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.57550304908217</v>
+        <v>18.57550304908218</v>
       </c>
       <c r="C7">
-        <v>10.07945747056334</v>
+        <v>10.07945747056341</v>
       </c>
       <c r="D7">
-        <v>6.398131168120856</v>
+        <v>6.398131168120812</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.96595142899299</v>
+        <v>56.96595142899318</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>12.2146690245942</v>
+        <v>12.21466902459423</v>
       </c>
       <c r="J7">
-        <v>15.47816925991266</v>
+        <v>15.47816925991271</v>
       </c>
       <c r="K7">
-        <v>13.99420299328725</v>
+        <v>13.99420299328728</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.66638998756935</v>
+        <v>20.66638998756954</v>
       </c>
       <c r="C8">
-        <v>11.16461610912612</v>
+        <v>11.16461610912616</v>
       </c>
       <c r="D8">
-        <v>6.770669335233002</v>
+        <v>6.770669335233083</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.00704108316049</v>
+        <v>62.00704108316077</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.28091221802346</v>
+        <v>13.2809122180235</v>
       </c>
       <c r="J8">
-        <v>17.18583341313507</v>
+        <v>17.18583341313523</v>
       </c>
       <c r="K8">
-        <v>15.5488445246249</v>
+        <v>15.54884452462496</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.46547526116658</v>
+        <v>24.4654752611664</v>
       </c>
       <c r="C9">
-        <v>13.14846586947972</v>
+        <v>13.14846586947971</v>
       </c>
       <c r="D9">
-        <v>7.491268034296147</v>
+        <v>7.49126803429625</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.42461213866595</v>
+        <v>71.42461213866582</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.33390475121468</v>
+        <v>15.33390475121464</v>
       </c>
       <c r="J9">
-        <v>20.28532558043833</v>
+        <v>20.2853255804382</v>
       </c>
       <c r="K9">
-        <v>18.38400049047528</v>
+        <v>18.3840004904753</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.10608231790711</v>
+        <v>27.10608231790709</v>
       </c>
       <c r="C10">
-        <v>14.53875737464084</v>
+        <v>14.53875737464111</v>
       </c>
       <c r="D10">
-        <v>8.020926193529208</v>
+        <v>8.020926193529302</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.10689178879487</v>
+        <v>78.10689178879537</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.98661757040411</v>
+        <v>16.98661757040415</v>
       </c>
       <c r="J10">
-        <v>22.43924440845167</v>
+        <v>22.43924440845171</v>
       </c>
       <c r="K10">
-        <v>20.36572093079229</v>
+        <v>20.36572093079228</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.28409454430683</v>
+        <v>28.28409454430665</v>
       </c>
       <c r="C11">
-        <v>15.16250673470897</v>
+        <v>15.16250673470887</v>
       </c>
       <c r="D11">
-        <v>8.263982308743854</v>
+        <v>8.263982308743723</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.11353295973815</v>
+        <v>81.11353295973746</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.72523182229434</v>
+        <v>17.72523182229427</v>
       </c>
       <c r="J11">
-        <v>23.40039460378028</v>
+        <v>23.40039460378011</v>
       </c>
       <c r="K11">
-        <v>21.25345540826928</v>
+        <v>21.25345540826929</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.72783810685491</v>
+        <v>28.72783810685488</v>
       </c>
       <c r="C12">
-        <v>15.39807596893751</v>
+        <v>15.39807596893742</v>
       </c>
       <c r="D12">
-        <v>8.356557828375703</v>
+        <v>8.356557828375776</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.24943661796857</v>
+        <v>82.24943661796851</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.00369802441011</v>
+        <v>18.00369802441007</v>
       </c>
       <c r="J12">
-        <v>23.76251755030037</v>
+        <v>23.76251755030033</v>
       </c>
       <c r="K12">
-        <v>21.58850704267862</v>
+        <v>21.58850704267861</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.63235600834552</v>
+        <v>28.63235600834544</v>
       </c>
       <c r="C13">
-        <v>15.34735859847275</v>
+        <v>15.34735859847276</v>
       </c>
       <c r="D13">
-        <v>8.33659184986063</v>
+        <v>8.33659184986062</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>82.0048767582815</v>
+        <v>82.00487675828104</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.94376781331106</v>
+        <v>17.94376781331098</v>
       </c>
       <c r="J13">
-        <v>23.68459448073368</v>
+        <v>23.68459448073364</v>
       </c>
       <c r="K13">
-        <v>21.5163813404948</v>
+        <v>21.51638134049477</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.32064208616436</v>
+        <v>28.32064208616418</v>
       </c>
       <c r="C14">
-        <v>15.1818957545964</v>
+        <v>15.18189575459639</v>
       </c>
       <c r="D14">
-        <v>8.271586269803494</v>
+        <v>8.271586269803491</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.20702314205447</v>
+        <v>81.20702314205417</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.74816170705879</v>
+        <v>17.74816170705881</v>
       </c>
       <c r="J14">
-        <v>23.43021814386863</v>
+        <v>23.43021814386855</v>
       </c>
       <c r="K14">
-        <v>21.28103698571902</v>
+        <v>21.28103698571904</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.12943629552869</v>
+        <v>28.12943629552865</v>
       </c>
       <c r="C15">
         <v>15.08048356279551</v>
       </c>
       <c r="D15">
-        <v>8.231846145416934</v>
+        <v>8.231846145416991</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.71804344896493</v>
+        <v>80.71804344896502</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.62820940022249</v>
+        <v>17.62820940022244</v>
       </c>
       <c r="J15">
         <v>23.27419330048982</v>
       </c>
       <c r="K15">
-        <v>21.13676564562222</v>
+        <v>21.13676564562225</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.02870947898173</v>
+        <v>27.0287094789819</v>
       </c>
       <c r="C16">
-        <v>14.49786877548913</v>
+        <v>14.49786877548923</v>
       </c>
       <c r="D16">
-        <v>8.005102847442737</v>
+        <v>8.005102847442771</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.90990156911518</v>
+        <v>77.90990156911565</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.93813545267705</v>
+        <v>16.93813545267712</v>
       </c>
       <c r="J16">
-        <v>22.37612310639984</v>
+        <v>22.37612310639997</v>
       </c>
       <c r="K16">
-        <v>20.30749816978664</v>
+        <v>20.30749816978667</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.34814619857661</v>
+        <v>26.34814619857654</v>
       </c>
       <c r="C17">
-        <v>14.13862545056993</v>
+        <v>14.13862545056969</v>
       </c>
       <c r="D17">
-        <v>7.866690620331237</v>
+        <v>7.866690620331205</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.18003477909518</v>
+        <v>76.1800347790949</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.5118456971982</v>
+        <v>16.51184569719819</v>
       </c>
       <c r="J17">
-        <v>21.82094757108663</v>
+        <v>21.8209475710865</v>
       </c>
       <c r="K17">
-        <v>19.79580341664747</v>
+        <v>19.7958034166474</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.95444880275354</v>
+        <v>25.95444880275348</v>
       </c>
       <c r="C18">
-        <v>13.93113520988737</v>
+        <v>13.93113520988727</v>
       </c>
       <c r="D18">
-        <v>7.787261337136251</v>
+        <v>7.787261337136282</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.18178147143463</v>
+        <v>75.18178147143466</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.26536403716107</v>
+        <v>16.26536403716109</v>
       </c>
       <c r="J18">
-        <v>21.49980771543091</v>
+        <v>21.49980771543086</v>
       </c>
       <c r="K18">
-        <v>19.50013364274107</v>
+        <v>19.50013364274106</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.82073535317112</v>
+        <v>25.82073535317115</v>
       </c>
       <c r="C19">
-        <v>13.86071758566593</v>
+        <v>13.86071758566596</v>
       </c>
       <c r="D19">
-        <v>7.760393061179413</v>
+        <v>7.760393061179534</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.1816697262768</v>
+        <v>16.18166972627683</v>
       </c>
       <c r="J19">
-        <v>21.39074025295858</v>
+        <v>21.39074025295865</v>
       </c>
       <c r="K19">
-        <v>19.39976858147187</v>
+        <v>19.39976858147201</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.42082022213685</v>
+        <v>26.42082022213694</v>
       </c>
       <c r="C20">
-        <v>14.17695276330225</v>
+        <v>14.17695276330221</v>
       </c>
       <c r="D20">
-        <v>7.881404538190734</v>
+        <v>7.881404538190824</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.36450796962848</v>
+        <v>76.36450796962893</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.55735419852923</v>
+        <v>16.55735419852919</v>
       </c>
       <c r="J20">
-        <v>21.88022952745956</v>
+        <v>21.88022952745967</v>
       </c>
       <c r="K20">
-        <v>19.85040891885197</v>
+        <v>19.85040891885194</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.41225461063886</v>
+        <v>28.41225461063873</v>
       </c>
       <c r="C21">
         <v>15.23050769267104</v>
       </c>
       <c r="D21">
-        <v>8.290663293156229</v>
+        <v>8.290663293156117</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.44142396290614</v>
+        <v>81.44142396290562</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.8056432913975</v>
+        <v>17.80564329139739</v>
       </c>
       <c r="J21">
-        <v>23.50497704650302</v>
+        <v>23.50497704650289</v>
       </c>
       <c r="K21">
-        <v>21.35018569996151</v>
+        <v>21.35018569996147</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.70074426339908</v>
+        <v>29.70074426339926</v>
       </c>
       <c r="C22">
-        <v>15.91578552380432</v>
+        <v>15.91578552380443</v>
       </c>
       <c r="D22">
-        <v>8.561414957755762</v>
+        <v>8.561414957755721</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.74551287629015</v>
+        <v>84.74551287629032</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.61472551199253</v>
+        <v>18.61472551199258</v>
       </c>
       <c r="J22">
-        <v>24.55663249776864</v>
+        <v>24.5566324977688</v>
       </c>
       <c r="K22">
-        <v>22.32443739880441</v>
+        <v>22.32443739880448</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.013855182062</v>
+        <v>29.01385518206201</v>
       </c>
       <c r="C23">
-        <v>15.55009646477974</v>
+        <v>15.5500964647796</v>
       </c>
       <c r="D23">
-        <v>8.416515933322442</v>
+        <v>8.416515933322488</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.98246863289843</v>
+        <v>82.98246863289874</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.1832577890506</v>
+        <v>18.18325778905063</v>
       </c>
       <c r="J23">
-        <v>23.995948974361</v>
+        <v>23.99594897436099</v>
       </c>
       <c r="K23">
-        <v>21.8046644129157</v>
+        <v>21.80466441291572</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.38797194479698</v>
+        <v>26.38797194479704</v>
       </c>
       <c r="C24">
-        <v>14.15962800931046</v>
+        <v>14.15962800931062</v>
       </c>
       <c r="D24">
-        <v>7.874751938586925</v>
+        <v>7.87475193858697</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.28111940989177</v>
+        <v>76.28111940989166</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.53678422046006</v>
+        <v>16.53678422046004</v>
       </c>
       <c r="J24">
-        <v>21.85343432737503</v>
+        <v>21.85343432737509</v>
       </c>
       <c r="K24">
-        <v>19.82572647380745</v>
+        <v>19.8257264738075</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.46690687500325</v>
+        <v>23.46690687500318</v>
       </c>
       <c r="C25">
-        <v>12.62529839640975</v>
+        <v>12.62529839640959</v>
       </c>
       <c r="D25">
-        <v>7.296848096597533</v>
+        <v>7.296848096597611</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.9232513942534</v>
+        <v>68.92325139425328</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.76234540792918</v>
+        <v>14.76234540792917</v>
       </c>
       <c r="J25">
-        <v>19.47083457860144</v>
+        <v>19.4708345786014</v>
       </c>
       <c r="K25">
-        <v>17.63718380860217</v>
+        <v>17.63718380860224</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.21150635524226</v>
+        <v>21.08658717754214</v>
       </c>
       <c r="C2">
-        <v>11.44823706431904</v>
+        <v>11.27413076246728</v>
       </c>
       <c r="D2">
-        <v>6.87076077294024</v>
+        <v>6.977366259404852</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.34017121965142</v>
+        <v>63.42597111760244</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.063290138357855</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.56491150471029</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>17.63074785150653</v>
+        <v>13.53978558220253</v>
       </c>
       <c r="K2">
-        <v>15.95471531161366</v>
+        <v>17.48325590059043</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>15.9136014462769</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.60689781889962</v>
+        <v>19.49180446957229</v>
       </c>
       <c r="C3">
-        <v>10.61423471202475</v>
+        <v>10.44303552947587</v>
       </c>
       <c r="D3">
-        <v>6.579574957710421</v>
+        <v>6.69219573029202</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.43727173965818</v>
+        <v>59.56205882878449</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.078237773806256</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.73578581863227</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>16.32078562634817</v>
+        <v>12.71373732655044</v>
       </c>
       <c r="K3">
-        <v>14.76069763535364</v>
+        <v>16.17883560048264</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>14.72314897946355</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.58123880182053</v>
+        <v>18.4726407984806</v>
       </c>
       <c r="C4">
-        <v>10.08242890630474</v>
+        <v>9.912881689732833</v>
       </c>
       <c r="D4">
-        <v>6.399127218729056</v>
+        <v>6.515639878992928</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.97960446047505</v>
+        <v>57.13042426496607</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.087516231927827</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>12.21753894863965</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>15.48285685974792</v>
+        <v>12.19737648181039</v>
       </c>
       <c r="K4">
-        <v>13.99846388084362</v>
+        <v>15.34436770933875</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>13.96308049292806</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.15274318333478</v>
+        <v>18.04692404119505</v>
       </c>
       <c r="C5">
-        <v>9.860518431791789</v>
+        <v>9.691610083328325</v>
       </c>
       <c r="D5">
-        <v>6.325127037088604</v>
+        <v>6.443275522934015</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.96260429945826</v>
+        <v>56.1245925981679</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.091329225342073</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>12.00405089558946</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>15.13260622280876</v>
+        <v>11.98465915247118</v>
       </c>
       <c r="K5">
-        <v>13.68019465513322</v>
+        <v>14.99554683673074</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>13.64569197833767</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.08094598760183</v>
+        <v>17.97559673454462</v>
       </c>
       <c r="C6">
-        <v>9.823350230126373</v>
+        <v>9.654545838064722</v>
       </c>
       <c r="D6">
-        <v>6.312810056483281</v>
+        <v>6.431233164303979</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.79280008908968</v>
+        <v>55.95667765519522</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.091964479888514</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.96846398461048</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>15.07390739580024</v>
+        <v>11.94920042602137</v>
       </c>
       <c r="K6">
-        <v>13.62687497237003</v>
+        <v>14.93708672317894</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>13.5925185496647</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.57550304908218</v>
+        <v>18.46694196621929</v>
       </c>
       <c r="C7">
-        <v>10.07945747056341</v>
+        <v>9.909919011191674</v>
       </c>
       <c r="D7">
-        <v>6.398131168120812</v>
+        <v>6.514665688493787</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.96595142899318</v>
+        <v>57.11691954616531</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.08756751768717</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>12.21466902459423</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>15.47816925991271</v>
+        <v>12.194516939757</v>
       </c>
       <c r="K7">
-        <v>13.99420299328728</v>
+        <v>15.33969930724102</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>13.95883148446463</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.66638998756954</v>
+        <v>20.54477185801732</v>
       </c>
       <c r="C8">
-        <v>11.16461610912616</v>
+        <v>10.99153972453568</v>
       </c>
       <c r="D8">
-        <v>6.770669335233083</v>
+        <v>6.879307905495288</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.00704108316077</v>
+        <v>62.10586979570522</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.068427479492939</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.2809122180235</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>17.18583341313523</v>
+        <v>13.25685017421464</v>
       </c>
       <c r="K8">
-        <v>15.54884452462496</v>
+        <v>17.04024338078275</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>15.50896773798053</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.4654752611664</v>
+        <v>24.32126646161018</v>
       </c>
       <c r="C9">
-        <v>13.14846586947971</v>
+        <v>12.96735379356082</v>
       </c>
       <c r="D9">
-        <v>7.49126803429625</v>
+        <v>7.585956395426996</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.42461213866582</v>
+        <v>71.43620079599661</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.031342280027428</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.33390475121464</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>20.2853255804382</v>
+        <v>15.29832382682664</v>
       </c>
       <c r="K9">
-        <v>18.3840004904753</v>
+        <v>20.12597103251572</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>18.33485406593552</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.10608231790709</v>
+        <v>26.94620090104166</v>
       </c>
       <c r="C10">
-        <v>14.53875737464111</v>
+        <v>14.35088217545083</v>
       </c>
       <c r="D10">
-        <v>8.020926193529302</v>
+        <v>8.106172065369774</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.10689178879537</v>
+        <v>78.06106635731174</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.003786023353484</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.98661757040415</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>22.43924440845171</v>
+        <v>16.94481730906062</v>
       </c>
       <c r="K10">
-        <v>20.36572093079228</v>
+        <v>22.26942772916575</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>20.30904521303231</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.28409454430665</v>
+        <v>28.11705471588064</v>
       </c>
       <c r="C11">
-        <v>15.16250673470887</v>
+        <v>14.97128087490608</v>
       </c>
       <c r="D11">
-        <v>8.263982308743723</v>
+        <v>8.345055339869173</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.11353295973746</v>
+        <v>81.04239008206098</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.991016645186869</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.72523182229427</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>23.40039460378011</v>
+        <v>17.68036860622042</v>
       </c>
       <c r="K11">
-        <v>21.25345540826929</v>
+        <v>23.22559385219078</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>21.19305051012806</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.72783810685488</v>
+        <v>28.55805940621033</v>
       </c>
       <c r="C12">
-        <v>15.39807596893742</v>
+        <v>15.20553030823242</v>
       </c>
       <c r="D12">
-        <v>8.356557828375776</v>
+        <v>8.436061781063955</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.24943661796851</v>
+        <v>82.16875439401359</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.986129955728167</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.00369802441007</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>23.76251755030033</v>
+        <v>17.95762774530645</v>
       </c>
       <c r="K12">
-        <v>21.58850704267861</v>
+        <v>23.58577970494937</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>21.52662865610822</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.63235600834544</v>
+        <v>28.46316887170576</v>
       </c>
       <c r="C13">
-        <v>15.34735859847276</v>
+        <v>15.15509968048313</v>
       </c>
       <c r="D13">
-        <v>8.33659184986062</v>
+        <v>8.41643336691609</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>82.00487675828104</v>
+        <v>81.92624811602896</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.987184991491991</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.94376781331098</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>23.68459448073364</v>
+        <v>17.89795986041804</v>
       </c>
       <c r="K13">
-        <v>21.51638134049477</v>
+        <v>23.5082763726234</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>21.45482336746174</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.32064208616418</v>
+        <v>28.15337765182182</v>
       </c>
       <c r="C14">
-        <v>15.18189575459639</v>
+        <v>14.99056241786173</v>
       </c>
       <c r="D14">
-        <v>8.271586269803491</v>
+        <v>8.352530035136709</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.20702314205417</v>
+        <v>81.13509493875715</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.990615755201334</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.74816170705881</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>23.43021814386855</v>
+        <v>17.70320022465015</v>
       </c>
       <c r="K14">
-        <v>21.28103698571904</v>
+        <v>23.2552591426571</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>21.22051221359068</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.12943629552865</v>
+        <v>27.96334509484558</v>
       </c>
       <c r="C15">
-        <v>15.08048356279551</v>
+        <v>14.88971011383045</v>
       </c>
       <c r="D15">
-        <v>8.231846145416991</v>
+        <v>8.313466281649173</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.71804344896502</v>
+        <v>80.65022342918449</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.992709940814299</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.62820940022244</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>23.27419330048982</v>
+        <v>17.58375978186321</v>
       </c>
       <c r="K15">
-        <v>21.13676564562225</v>
+        <v>23.10005970471352</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>21.0768651313823</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.0287094789819</v>
+        <v>26.86929337727116</v>
       </c>
       <c r="C16">
-        <v>14.49786877548923</v>
+        <v>14.31020614238935</v>
       </c>
       <c r="D16">
-        <v>8.005102847442771</v>
+        <v>8.09062338007044</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.90990156911565</v>
+        <v>77.86574137686534</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.004614409280984</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.93813545267712</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>22.37612310639997</v>
+        <v>16.89652959480981</v>
       </c>
       <c r="K16">
-        <v>20.30749816978667</v>
+        <v>22.20662625525796</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>20.25105866465731</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.34814619857654</v>
+        <v>26.19280226842789</v>
       </c>
       <c r="C17">
-        <v>14.13862545056969</v>
+        <v>13.95279405703693</v>
       </c>
       <c r="D17">
-        <v>7.866690620331205</v>
+        <v>7.954631307150883</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.1800347790949</v>
+        <v>76.15055061487493</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.011846155489429</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.51184569719819</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>21.8209475710865</v>
+        <v>16.47191613678</v>
       </c>
       <c r="K17">
-        <v>19.7958034166474</v>
+        <v>21.65422682509465</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>19.74139837981244</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.95444880275348</v>
+        <v>25.80144605553273</v>
       </c>
       <c r="C18">
-        <v>13.93113520988727</v>
+        <v>13.74633220410861</v>
       </c>
       <c r="D18">
-        <v>7.787261337136282</v>
+        <v>7.87660607201602</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.18178147143466</v>
+        <v>75.16081863089596</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.015984894799307</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.26536403716109</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>21.49980771543086</v>
+        <v>16.22637765500961</v>
       </c>
       <c r="K18">
-        <v>19.50013364274106</v>
+        <v>21.33466384925276</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>19.44687147887783</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.82073535317115</v>
+        <v>25.66852575794076</v>
       </c>
       <c r="C19">
-        <v>13.86071758566596</v>
+        <v>13.67625878450442</v>
       </c>
       <c r="D19">
-        <v>7.760393061179534</v>
+        <v>7.850215416253943</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.84317142555641</v>
+        <v>74.82510933292372</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.017383109070753</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.18166972627683</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>21.39074025295865</v>
+        <v>16.14299943146819</v>
       </c>
       <c r="K19">
-        <v>19.39976858147201</v>
+        <v>21.22612732804618</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>19.34688913603371</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.42082022213694</v>
+        <v>26.26504306415912</v>
       </c>
       <c r="C20">
-        <v>14.17695276330221</v>
+        <v>13.99092907785476</v>
       </c>
       <c r="D20">
-        <v>7.881404538190824</v>
+        <v>7.969086390124076</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.36450796962893</v>
+        <v>76.33345367277582</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.011078588650581</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.55735419852919</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>21.88022952745967</v>
+        <v>16.51724845008538</v>
       </c>
       <c r="K20">
-        <v>19.85040891885194</v>
+        <v>21.71321542555007</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>19.79579024486068</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.41225461063873</v>
+        <v>28.24442641672787</v>
       </c>
       <c r="C21">
-        <v>15.23050769267104</v>
+        <v>15.0389039882438</v>
       </c>
       <c r="D21">
-        <v>8.290663293156117</v>
+        <v>8.371283063794216</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.44142396290562</v>
+        <v>81.36752699354264</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.989609606022605</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.80564329139739</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>23.50497704650289</v>
+        <v>17.76043459124777</v>
       </c>
       <c r="K21">
-        <v>21.35018569996147</v>
+        <v>23.32962035875171</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>21.28935928548469</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.70074426339926</v>
+        <v>29.52485997147833</v>
       </c>
       <c r="C22">
-        <v>15.91578552380443</v>
+        <v>15.72022888788485</v>
       </c>
       <c r="D22">
-        <v>8.561414957755721</v>
+        <v>8.637479075888578</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.74551287629032</v>
+        <v>84.64385072032157</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.975268694302574</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.61472551199258</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>24.5566324977688</v>
+        <v>18.56589678408053</v>
       </c>
       <c r="K22">
-        <v>22.32443739880448</v>
+        <v>24.37552102252028</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>22.25918352549502</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.01385518206201</v>
+        <v>28.84229669368023</v>
       </c>
       <c r="C23">
-        <v>15.5500964647796</v>
+        <v>15.35668266104686</v>
       </c>
       <c r="D23">
-        <v>8.416515933322488</v>
+        <v>8.495008795674408</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.98246863289874</v>
+        <v>82.89563039279044</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.982957941359319</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.18325778905063</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>23.99594897436099</v>
+        <v>18.13639295994638</v>
       </c>
       <c r="K23">
-        <v>21.80466441291572</v>
+        <v>23.81794392496808</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>21.74181490825502</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.38797194479704</v>
+        <v>26.23239064728181</v>
       </c>
       <c r="C24">
-        <v>14.15962800931062</v>
+        <v>13.97369133427927</v>
       </c>
       <c r="D24">
-        <v>7.87475193858697</v>
+        <v>7.962550769847818</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.28111940989166</v>
+        <v>76.25077470387652</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.011425663176979</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.53678422046004</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>21.85343432737509</v>
+        <v>16.49675818966301</v>
       </c>
       <c r="K24">
-        <v>19.8257264738075</v>
+        <v>21.68655291005824</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>19.77120446731217</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.46690687500318</v>
+        <v>23.32857787316396</v>
       </c>
       <c r="C25">
-        <v>12.62529839640959</v>
+        <v>12.44649016472196</v>
       </c>
       <c r="D25">
-        <v>7.296848096597611</v>
+        <v>7.395155494582793</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.92325139425328</v>
+        <v>68.95707271436316</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.04138092211334</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.76234540792917</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>19.4708345786014</v>
+        <v>14.73259040647848</v>
       </c>
       <c r="K25">
-        <v>17.63718380860224</v>
+        <v>19.31522434246889</v>
       </c>
       <c r="L25">
+        <v>17.59063139743818</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.08658717754214</v>
+        <v>26.44206335957173</v>
       </c>
       <c r="C2">
-        <v>11.27413076246728</v>
+        <v>17.45656277652054</v>
       </c>
       <c r="D2">
-        <v>6.977366259404852</v>
+        <v>5.143946457166782</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.42597111760244</v>
+        <v>40.15730866268824</v>
       </c>
       <c r="G2">
-        <v>2.063290138357855</v>
+        <v>2.077379420339323</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>13.53978558220253</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>17.48325590059043</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>15.9136014462769</v>
+        <v>6.231376283072073</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>14.60414594719322</v>
+      </c>
+      <c r="N2">
+        <v>14.34217185289204</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.49180446957229</v>
+        <v>24.71210857840734</v>
       </c>
       <c r="C3">
-        <v>10.44303552947587</v>
+        <v>16.24380481715649</v>
       </c>
       <c r="D3">
-        <v>6.69219573029202</v>
+        <v>5.200793009742408</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.56205882878449</v>
+        <v>38.2601996941089</v>
       </c>
       <c r="G3">
-        <v>2.078237773806256</v>
+        <v>2.090197968729841</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.71373732655044</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>16.17883560048264</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>14.72314897946355</v>
+        <v>6.189232067313076</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>13.9568945400871</v>
+      </c>
+      <c r="N3">
+        <v>14.52637156534471</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.4726407984806</v>
+        <v>23.61287950688224</v>
       </c>
       <c r="C4">
-        <v>9.912881689732833</v>
+        <v>15.46440788046278</v>
       </c>
       <c r="D4">
-        <v>6.515639878992928</v>
+        <v>5.238951301424017</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>57.13042426496607</v>
+        <v>37.09634831499162</v>
       </c>
       <c r="G4">
-        <v>2.087516231927827</v>
+        <v>2.09822091119043</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.19737648181039</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>15.34436770933875</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>13.96308049292806</v>
+        <v>6.166578258739533</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>13.55763120160746</v>
+      </c>
+      <c r="N4">
+        <v>14.64455923097593</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.04692404119505</v>
+        <v>23.15574996423975</v>
       </c>
       <c r="C5">
-        <v>9.691610083328325</v>
+        <v>15.13787882063573</v>
       </c>
       <c r="D5">
-        <v>6.443275522934015</v>
+        <v>5.255265387410988</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>56.1245925981679</v>
+        <v>36.62265332422597</v>
       </c>
       <c r="G5">
-        <v>2.091329225342073</v>
+        <v>2.101532464655294</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.98465915247118</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>14.99554683673074</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>13.64569197833767</v>
+        <v>6.15813261358323</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13.39461986439557</v>
+      </c>
+      <c r="N5">
+        <v>14.69395477311978</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.97559673454462</v>
+        <v>23.0792948802086</v>
       </c>
       <c r="C6">
-        <v>9.654545838064722</v>
+        <v>15.08311545674904</v>
       </c>
       <c r="D6">
-        <v>6.431233164303979</v>
+        <v>5.258019039010825</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.95667765519522</v>
+        <v>36.54404367111949</v>
       </c>
       <c r="G6">
-        <v>2.091964479888514</v>
+        <v>2.102084996557807</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.94920042602137</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>14.93708672317894</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>13.5925185496647</v>
+        <v>6.15677698931573</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13.36753854960829</v>
+      </c>
+      <c r="N6">
+        <v>14.70223012610739</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.46694196621929</v>
+        <v>23.60675144622129</v>
       </c>
       <c r="C7">
-        <v>9.909919011191674</v>
+        <v>15.46004052651315</v>
       </c>
       <c r="D7">
-        <v>6.514665688493787</v>
+        <v>5.239168290794775</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>57.11691954616531</v>
+        <v>37.08995701582828</v>
       </c>
       <c r="G7">
-        <v>2.08756751768717</v>
+        <v>2.098265396506491</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.194516939757</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>15.33969930724102</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>13.95883148446463</v>
+        <v>6.166461207251651</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>13.55543379085209</v>
+      </c>
+      <c r="N7">
+        <v>14.6452204595824</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.54477185801732</v>
+        <v>25.85330585015334</v>
       </c>
       <c r="C8">
-        <v>10.99153972453568</v>
+        <v>17.04550399212564</v>
       </c>
       <c r="D8">
-        <v>6.879307905495288</v>
+        <v>5.16283695678442</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.10586979570522</v>
+        <v>39.50315137906628</v>
       </c>
       <c r="G8">
-        <v>2.068427479492939</v>
+        <v>2.08177007139875</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>13.25685017421464</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>17.04024338078275</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>15.50896773798053</v>
+        <v>6.216161050377974</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>14.38144046486409</v>
+      </c>
+      <c r="N8">
+        <v>14.40459749578472</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.32126646161018</v>
+        <v>30.21107833715389</v>
       </c>
       <c r="C9">
-        <v>12.96735379356082</v>
+        <v>19.88804196412882</v>
       </c>
       <c r="D9">
-        <v>7.585956395426996</v>
+        <v>5.04182068304504</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.43620079599661</v>
+        <v>44.2344179724322</v>
       </c>
       <c r="G9">
-        <v>2.031342280027428</v>
+        <v>2.050436929778856</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>15.29832382682664</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>20.12597103251572</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>18.33485406593552</v>
+        <v>6.34035375543275</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>15.98162020081677</v>
+      </c>
+      <c r="N9">
+        <v>13.97565363388557</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.94620090104166</v>
+        <v>33.23487119330917</v>
       </c>
       <c r="C10">
-        <v>14.35088217545083</v>
+        <v>21.82885255701736</v>
       </c>
       <c r="D10">
-        <v>8.106172065369774</v>
+        <v>4.975099099705406</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.06106635731174</v>
+        <v>47.7080353586346</v>
       </c>
       <c r="G10">
-        <v>2.003786023353484</v>
+        <v>2.027725860194831</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>16.94481730906062</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>22.26942772916575</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>20.30904521303231</v>
+        <v>6.449630118582653</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>17.34196451813205</v>
+      </c>
+      <c r="N10">
+        <v>13.69107478491148</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.11705471588064</v>
+        <v>34.56667641408612</v>
       </c>
       <c r="C11">
-        <v>14.97128087490608</v>
+        <v>22.68369783149755</v>
       </c>
       <c r="D11">
-        <v>8.345055339869173</v>
+        <v>4.950870615171186</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.04239008206098</v>
+        <v>49.2904626703232</v>
       </c>
       <c r="G11">
-        <v>1.991016645186869</v>
+        <v>2.017379390118538</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>17.68036860622042</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>23.22559385219078</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>21.19305051012806</v>
+        <v>6.503689205641833</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>18.03607252487429</v>
+      </c>
+      <c r="N11">
+        <v>13.56954480665309</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.55805940621033</v>
+        <v>35.06521558643059</v>
       </c>
       <c r="C12">
-        <v>15.20553030823242</v>
+        <v>23.00376566888563</v>
       </c>
       <c r="D12">
-        <v>8.436061781063955</v>
+        <v>4.942710001436761</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.16875439401359</v>
+        <v>49.89046273130838</v>
       </c>
       <c r="G12">
-        <v>1.986129955728167</v>
+        <v>2.013451188948256</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>17.95762774530645</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>23.58577970494937</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>21.52662865610822</v>
+        <v>6.52482625587047</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>18.29560814447299</v>
+      </c>
+      <c r="N12">
+        <v>13.52480332600318</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.46316887170576</v>
+        <v>34.95809463225869</v>
       </c>
       <c r="C13">
-        <v>15.15509968048313</v>
+        <v>22.9349885259009</v>
       </c>
       <c r="D13">
-        <v>8.41643336691609</v>
+        <v>4.944420052228113</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.92624811602896</v>
+        <v>49.76119859658807</v>
       </c>
       <c r="G13">
-        <v>1.987184991491991</v>
+        <v>2.01429779379683</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>17.89795986041804</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>23.5082763726234</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>21.45482336746174</v>
+        <v>6.520243681907187</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>18.23985476408755</v>
+      </c>
+      <c r="N13">
+        <v>13.53437977084352</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.15337765182182</v>
+        <v>34.60780430010967</v>
       </c>
       <c r="C14">
-        <v>14.99056241786173</v>
+        <v>22.71010058058712</v>
       </c>
       <c r="D14">
-        <v>8.352530035136709</v>
+        <v>4.950178062749656</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.13509493875715</v>
+        <v>49.33980637840519</v>
       </c>
       <c r="G14">
-        <v>1.990615755201334</v>
+        <v>2.017056470100048</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>17.70320022465015</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>23.2552591426571</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>21.22051221359068</v>
+        <v>6.505414561543757</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>18.05748923633069</v>
+      </c>
+      <c r="N14">
+        <v>13.56583735585517</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.96334509484558</v>
+        <v>34.39250423525377</v>
       </c>
       <c r="C15">
-        <v>14.88971011383045</v>
+        <v>22.57188830623294</v>
       </c>
       <c r="D15">
-        <v>8.313466281649173</v>
+        <v>4.953841446444111</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.65022342918449</v>
+        <v>49.08180816045876</v>
       </c>
       <c r="G15">
-        <v>1.992709940814299</v>
+        <v>2.018744647740859</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>17.58375978186321</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>23.10005970471352</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>21.0768651313823</v>
+        <v>6.496419340039197</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>17.94536322591713</v>
+      </c>
+      <c r="N15">
+        <v>13.58527727209007</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.86929337727116</v>
+        <v>33.14699546972665</v>
       </c>
       <c r="C16">
-        <v>14.31020614238935</v>
+        <v>21.77245403570646</v>
       </c>
       <c r="D16">
-        <v>8.09062338007044</v>
+        <v>4.976816621100641</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.86574137686534</v>
+        <v>47.60469909472998</v>
       </c>
       <c r="G16">
-        <v>2.004614409280984</v>
+        <v>2.02840106300744</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>16.89652959480981</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>22.20662625525796</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>20.25105866465731</v>
+        <v>6.446188093819223</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>17.29612397650798</v>
+      </c>
+      <c r="N16">
+        <v>13.699187832798</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.19280226842789</v>
+        <v>32.37204478149725</v>
       </c>
       <c r="C17">
-        <v>13.95279405703693</v>
+        <v>21.27510347259187</v>
       </c>
       <c r="D17">
-        <v>7.954631307150883</v>
+        <v>4.992567663837103</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.15055061487493</v>
+        <v>46.69937576048258</v>
       </c>
       <c r="G17">
-        <v>2.011846155489429</v>
+        <v>2.034315752386991</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>16.47191613678</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>21.65422682509465</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>19.74139837981244</v>
+        <v>6.416513965103396</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>16.89163499266809</v>
+      </c>
+      <c r="N17">
+        <v>13.77118892792581</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.80144605553273</v>
+        <v>31.9221621861391</v>
       </c>
       <c r="C18">
-        <v>13.74633220410861</v>
+        <v>20.98637489420717</v>
       </c>
       <c r="D18">
-        <v>7.87660607201602</v>
+        <v>5.002194380201933</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.16081863089596</v>
+        <v>46.17883286344485</v>
       </c>
       <c r="G18">
-        <v>2.015984894799307</v>
+        <v>2.037716853787495</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>16.22637765500961</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>21.33466384925276</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>19.44687147887783</v>
+        <v>6.399852793354564</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>16.65661733051977</v>
+      </c>
+      <c r="N18">
+        <v>13.81333823502137</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.66852575794076</v>
+        <v>31.76911278213825</v>
       </c>
       <c r="C19">
-        <v>13.67625878450442</v>
+        <v>20.88814764550365</v>
       </c>
       <c r="D19">
-        <v>7.850215416253943</v>
+        <v>5.005547515746671</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.82510933292372</v>
+        <v>46.00260563806162</v>
       </c>
       <c r="G19">
-        <v>2.017383109070753</v>
+        <v>2.038868483918584</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>16.14299943146819</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>21.22612732804618</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>19.34688913603371</v>
+        <v>6.394280287459599</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>16.57663011172044</v>
+      </c>
+      <c r="N19">
+        <v>13.82773191009686</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.26504306415912</v>
+        <v>32.45496591005982</v>
       </c>
       <c r="C20">
-        <v>13.99092907785476</v>
+        <v>21.32832055402038</v>
       </c>
       <c r="D20">
-        <v>7.969086390124076</v>
+        <v>4.990831345836714</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.33345367277582</v>
+        <v>46.79572824328056</v>
       </c>
       <c r="G20">
-        <v>2.011078588650581</v>
+        <v>2.033686268141589</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>16.51724845008538</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>21.71321542555007</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>19.79579024486068</v>
+        <v>6.419630467416075</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>16.93493654473046</v>
+      </c>
+      <c r="N20">
+        <v>13.76344717627524</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.24442641672787</v>
+        <v>34.71084564979456</v>
       </c>
       <c r="C21">
-        <v>15.0389039882438</v>
+        <v>22.77625110147801</v>
       </c>
       <c r="D21">
-        <v>8.371283063794216</v>
+        <v>4.948458090609323</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.36752699354264</v>
+        <v>49.46355409851277</v>
       </c>
       <c r="G21">
-        <v>1.989609606022605</v>
+        <v>2.016246527829649</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>17.76043459124777</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>23.32962035875171</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>21.28935928548469</v>
+        <v>6.509751804750437</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>18.11114177275482</v>
+      </c>
+      <c r="N21">
+        <v>13.55656152376767</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.52485997147833</v>
+        <v>36.15176684431298</v>
       </c>
       <c r="C22">
-        <v>15.72022888788485</v>
+        <v>23.70154765563776</v>
       </c>
       <c r="D22">
-        <v>8.637479075888578</v>
+        <v>4.926755671730467</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.64385072032157</v>
+        <v>51.21196754045705</v>
       </c>
       <c r="G22">
-        <v>1.975268694302574</v>
+        <v>2.004784378573541</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>18.56589678408053</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>24.37552102252028</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>22.25918352549502</v>
+        <v>6.572556807645278</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>18.86073799561068</v>
+      </c>
+      <c r="N22">
+        <v>13.42889349852267</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.84229669368023</v>
+        <v>35.38558803422291</v>
       </c>
       <c r="C23">
-        <v>15.35668266104686</v>
+        <v>23.20947669686332</v>
       </c>
       <c r="D23">
-        <v>8.495008795674408</v>
+        <v>4.937740086971194</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.89563039279044</v>
+        <v>50.27816488864059</v>
       </c>
       <c r="G23">
-        <v>1.982957941359319</v>
+        <v>2.010910832549283</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>18.13639295994638</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>23.81794392496808</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>21.74181490825502</v>
+        <v>6.538664240657405</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>18.46231115233851</v>
+      </c>
+      <c r="N23">
+        <v>13.49628803217771</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.23239064728181</v>
+        <v>32.41749086352874</v>
       </c>
       <c r="C24">
-        <v>13.97369133427927</v>
+        <v>21.30426984608387</v>
       </c>
       <c r="D24">
-        <v>7.962550769847818</v>
+        <v>4.991614565767764</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.25077470387652</v>
+        <v>46.75216750505164</v>
       </c>
       <c r="G24">
-        <v>2.011425663176979</v>
+        <v>2.033970855300558</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>16.49675818966301</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>21.68655291005824</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>19.77120446731217</v>
+        <v>6.418220257291038</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>16.91536763185247</v>
+      </c>
+      <c r="N24">
+        <v>13.76694488100125</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.32857787316396</v>
+        <v>29.0558873912875</v>
       </c>
       <c r="C25">
-        <v>12.44649016472196</v>
+        <v>19.14618113259898</v>
       </c>
       <c r="D25">
-        <v>7.395155494582793</v>
+        <v>5.071049886954205</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.95707271436316</v>
+        <v>42.95530112980352</v>
       </c>
       <c r="G25">
-        <v>2.04138092211334</v>
+        <v>2.058834283129438</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>14.73259040647848</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>19.31522434246889</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>17.59063139743818</v>
+        <v>6.303723694185913</v>
       </c>
       <c r="M25">
+        <v>15.5513583695231</v>
+      </c>
+      <c r="N25">
+        <v>14.08669952645202</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.44206335957173</v>
+        <v>18.59671165193649</v>
       </c>
       <c r="C2">
-        <v>17.45656277652054</v>
+        <v>6.398379610491681</v>
       </c>
       <c r="D2">
-        <v>5.143946457166782</v>
+        <v>2.092336974343273</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.15730866268824</v>
+        <v>41.28323237466149</v>
       </c>
       <c r="G2">
-        <v>2.077379420339323</v>
+        <v>2.165053330849322</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.392445685218311</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.60013027625499</v>
       </c>
       <c r="L2">
-        <v>6.231376283072073</v>
+        <v>7.155878426126497</v>
       </c>
       <c r="M2">
-        <v>14.60414594719322</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>14.34217185289204</v>
+        <v>18.09676593045933</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.71210857840734</v>
+        <v>17.73329032388181</v>
       </c>
       <c r="C3">
-        <v>16.24380481715649</v>
+        <v>5.975689140372424</v>
       </c>
       <c r="D3">
-        <v>5.200793009742408</v>
+        <v>2.05395429286772</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.2601996941089</v>
+        <v>40.53022581651651</v>
       </c>
       <c r="G3">
-        <v>2.090197968729841</v>
+        <v>2.173913665096581</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.42233737974844</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.95694179102373</v>
       </c>
       <c r="L3">
-        <v>6.189232067313076</v>
+        <v>7.048397654254552</v>
       </c>
       <c r="M3">
-        <v>13.9568945400871</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.52637156534471</v>
+        <v>18.20753493979828</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.61287950688224</v>
+        <v>17.19525261079097</v>
       </c>
       <c r="C4">
-        <v>15.46440788046278</v>
+        <v>5.703333297100886</v>
       </c>
       <c r="D4">
-        <v>5.238951301424017</v>
+        <v>2.029379204575438</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.09634831499162</v>
+        <v>40.08809361289762</v>
       </c>
       <c r="G4">
-        <v>2.09822091119043</v>
+        <v>2.179500516792219</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.442400820939506</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.55765388823992</v>
       </c>
       <c r="L4">
-        <v>6.166578258739533</v>
+        <v>6.985515607493068</v>
       </c>
       <c r="M4">
-        <v>13.55763120160746</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>14.64455923097593</v>
+        <v>18.28048680963199</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.15574996423975</v>
+        <v>16.97429837949829</v>
       </c>
       <c r="C5">
-        <v>15.13787882063573</v>
+        <v>5.589093056632419</v>
       </c>
       <c r="D5">
-        <v>5.255265387410988</v>
+        <v>2.019117395727088</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.62265332422597</v>
+        <v>39.91299274056374</v>
       </c>
       <c r="G5">
-        <v>2.101532464655294</v>
+        <v>2.181815629477837</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.451001476591177</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.3940560192004</v>
       </c>
       <c r="L5">
-        <v>6.15813261358323</v>
+        <v>6.960679216836866</v>
       </c>
       <c r="M5">
-        <v>13.39461986439557</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>14.69395477311978</v>
+        <v>18.31142385724515</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.0792948802086</v>
+        <v>16.93751566591912</v>
       </c>
       <c r="C6">
-        <v>15.08311545674904</v>
+        <v>5.569926353696621</v>
       </c>
       <c r="D6">
-        <v>5.258019039010825</v>
+        <v>2.017398687117585</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.54404367111949</v>
+        <v>39.88422320580748</v>
       </c>
       <c r="G6">
-        <v>2.102084996557807</v>
+        <v>2.182202417042907</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.452455108095507</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.36684410713883</v>
       </c>
       <c r="L6">
-        <v>6.15677698931573</v>
+        <v>6.956602937551645</v>
       </c>
       <c r="M6">
-        <v>13.36753854960829</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>14.70223012610739</v>
+        <v>18.31663300316511</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.60675144622129</v>
+        <v>17.19227921595414</v>
       </c>
       <c r="C7">
-        <v>15.46004052651315</v>
+        <v>5.701805818368289</v>
       </c>
       <c r="D7">
-        <v>5.239168290794775</v>
+        <v>2.029241802834788</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.08995701582828</v>
+        <v>40.0857116270661</v>
       </c>
       <c r="G7">
-        <v>2.098265396506491</v>
+        <v>2.179531581621745</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.442515099764094</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.55545082832282</v>
       </c>
       <c r="L7">
-        <v>6.166461207251651</v>
+        <v>6.98517745508662</v>
       </c>
       <c r="M7">
-        <v>13.55543379085209</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>14.6452204595824</v>
+        <v>18.2808991860447</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.85330585015334</v>
+        <v>18.30079952133463</v>
       </c>
       <c r="C8">
-        <v>17.04550399212564</v>
+        <v>6.255277972190949</v>
       </c>
       <c r="D8">
-        <v>5.16283695678442</v>
+        <v>2.079315395387781</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.50315137906628</v>
+        <v>41.01939367781897</v>
       </c>
       <c r="G8">
-        <v>2.08177007139875</v>
+        <v>2.168078929275542</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.402394156013465</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.37938384538978</v>
       </c>
       <c r="L8">
-        <v>6.216161050377974</v>
+        <v>7.11817716574142</v>
       </c>
       <c r="M8">
-        <v>14.38144046486409</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>14.40459749578472</v>
+        <v>18.13391287977392</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.21107833715389</v>
+        <v>20.40178680019562</v>
       </c>
       <c r="C9">
-        <v>19.88804196412882</v>
+        <v>7.240510198824625</v>
       </c>
       <c r="D9">
-        <v>5.04182068304504</v>
+        <v>2.169264876681744</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.2344179724322</v>
+        <v>43.01128894880542</v>
       </c>
       <c r="G9">
-        <v>2.050436929778856</v>
+        <v>2.146706855724382</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.337543320621858</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.95272016451294</v>
       </c>
       <c r="L9">
-        <v>6.34035375543275</v>
+        <v>7.40339312095962</v>
       </c>
       <c r="M9">
-        <v>15.98162020081677</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>13.97565363388557</v>
+        <v>17.88653296698925</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.23487119330917</v>
+        <v>21.89063301903781</v>
       </c>
       <c r="C10">
-        <v>21.82885255701736</v>
+        <v>7.905989859138607</v>
       </c>
       <c r="D10">
-        <v>4.975099099705406</v>
+        <v>2.230029307669162</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.7080353586346</v>
+        <v>44.57405447491558</v>
       </c>
       <c r="G10">
-        <v>2.027725860194831</v>
+        <v>2.13155141797357</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.298720620840519</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.07480379316755</v>
       </c>
       <c r="L10">
-        <v>6.449630118582653</v>
+        <v>7.627471024127226</v>
       </c>
       <c r="M10">
-        <v>17.34196451813205</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>13.69107478491148</v>
+        <v>17.73228607656287</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.56667641408612</v>
+        <v>22.55476298635125</v>
       </c>
       <c r="C11">
-        <v>22.68369783149755</v>
+        <v>8.19676050353395</v>
       </c>
       <c r="D11">
-        <v>4.950870615171186</v>
+        <v>2.256464444166569</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.2904626703232</v>
+        <v>45.30704449492865</v>
       </c>
       <c r="G11">
-        <v>2.017379390118538</v>
+        <v>2.124747030347973</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.283073063009105</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.57688593644693</v>
       </c>
       <c r="L11">
-        <v>6.503689205641833</v>
+        <v>7.732511987162415</v>
       </c>
       <c r="M11">
-        <v>18.03607252487429</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>13.56954480665309</v>
+        <v>17.66875199760836</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.06521558643059</v>
+        <v>22.80430638145263</v>
       </c>
       <c r="C12">
-        <v>23.00376566888563</v>
+        <v>8.305214154467619</v>
       </c>
       <c r="D12">
-        <v>4.942710001436761</v>
+        <v>2.266297410754665</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.89046273130838</v>
+        <v>45.58784449452238</v>
       </c>
       <c r="G12">
-        <v>2.013451188948256</v>
+        <v>2.122180692342369</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.277446397210642</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.76576426049911</v>
       </c>
       <c r="L12">
-        <v>6.52482625587047</v>
+        <v>7.772732711054339</v>
       </c>
       <c r="M12">
-        <v>18.29560814447299</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>13.52480332600318</v>
+        <v>17.64571101623075</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.95809463225869</v>
+        <v>22.75064987292869</v>
       </c>
       <c r="C13">
-        <v>22.9349885259009</v>
+        <v>8.281929208408901</v>
       </c>
       <c r="D13">
-        <v>4.944420052228113</v>
+        <v>2.264187654253094</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.76119859658807</v>
+        <v>45.52722422765746</v>
       </c>
       <c r="G13">
-        <v>2.01429779379683</v>
+        <v>2.122732983504552</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.278644757434424</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>17.72514192120013</v>
       </c>
       <c r="L13">
-        <v>6.520243681907187</v>
+        <v>7.764050725233282</v>
       </c>
       <c r="M13">
-        <v>18.23985476408755</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>13.53437977084352</v>
+        <v>17.65062692662158</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.60780430010967</v>
+        <v>22.57533229992768</v>
       </c>
       <c r="C14">
-        <v>22.71010058058712</v>
+        <v>8.205715818760327</v>
       </c>
       <c r="D14">
-        <v>4.950178062749656</v>
+        <v>2.257276985104653</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.33980637840519</v>
+        <v>45.33008087313365</v>
       </c>
       <c r="G14">
-        <v>2.017056470100048</v>
+        <v>2.124535704794546</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.282604110708588</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>17.59245026864865</v>
       </c>
       <c r="L14">
-        <v>6.505414561543757</v>
+        <v>7.735812077785178</v>
       </c>
       <c r="M14">
-        <v>18.05748923633069</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>13.56583735585517</v>
+        <v>17.66683560603552</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.39250423525377</v>
+        <v>22.46769050689022</v>
       </c>
       <c r="C15">
-        <v>22.57188830623294</v>
+        <v>8.158819454987585</v>
       </c>
       <c r="D15">
-        <v>4.953841446444111</v>
+        <v>2.253020784728767</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.08180816045876</v>
+        <v>45.20974799533584</v>
       </c>
       <c r="G15">
-        <v>2.018744647740859</v>
+        <v>2.125641188371282</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.285068521699539</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.51100922908418</v>
       </c>
       <c r="L15">
-        <v>6.496419340039197</v>
+        <v>7.718572877574675</v>
       </c>
       <c r="M15">
-        <v>17.94536322591713</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>13.58527727209007</v>
+        <v>17.67689849376481</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.14699546972665</v>
+        <v>21.84696011664195</v>
       </c>
       <c r="C16">
-        <v>21.77245403570646</v>
+        <v>7.886752037232939</v>
       </c>
       <c r="D16">
-        <v>4.976816621100641</v>
+        <v>2.22827707933545</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.60469909472998</v>
+        <v>44.52660051561323</v>
       </c>
       <c r="G16">
-        <v>2.02840106300744</v>
+        <v>2.131997693929982</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.299784503826087</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.04181859424068</v>
       </c>
       <c r="L16">
-        <v>6.446188093819223</v>
+        <v>7.620668568976807</v>
       </c>
       <c r="M16">
-        <v>17.29612397650798</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>13.699187832798</v>
+        <v>17.73657697356355</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.37204478149725</v>
+        <v>21.46274008702883</v>
       </c>
       <c r="C17">
-        <v>21.27510347259187</v>
+        <v>7.716828252257129</v>
       </c>
       <c r="D17">
-        <v>4.992567663837103</v>
+        <v>2.212785575503576</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.69937576048258</v>
+        <v>44.11320026716526</v>
       </c>
       <c r="G17">
-        <v>2.034315752386991</v>
+        <v>2.135918463989514</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.309334179877327</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.7518009474871</v>
       </c>
       <c r="L17">
-        <v>6.416513965103396</v>
+        <v>7.5614003777865</v>
       </c>
       <c r="M17">
-        <v>16.89163499266809</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>13.77118892792581</v>
+        <v>17.77493011574142</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.9221621861391</v>
+        <v>21.24050962605236</v>
       </c>
       <c r="C18">
-        <v>20.98637489420717</v>
+        <v>7.617962597241505</v>
       </c>
       <c r="D18">
-        <v>5.002194380201933</v>
+        <v>2.203761874631593</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.17883286344485</v>
+        <v>43.87749692915347</v>
       </c>
       <c r="G18">
-        <v>2.037716853787495</v>
+        <v>2.138182218151061</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.315015777175392</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.58420451131952</v>
       </c>
       <c r="L18">
-        <v>6.399852793354564</v>
+        <v>7.527603333608256</v>
       </c>
       <c r="M18">
-        <v>16.65661733051977</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>13.81333823502137</v>
+        <v>17.79760995750656</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.76911278213825</v>
+        <v>21.1650560928243</v>
       </c>
       <c r="C19">
-        <v>20.88814764550365</v>
+        <v>7.584292451459038</v>
       </c>
       <c r="D19">
-        <v>5.005547515746671</v>
+        <v>2.200687254994255</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.00260563806162</v>
+        <v>43.79804660634311</v>
       </c>
       <c r="G19">
-        <v>2.038868483918584</v>
+        <v>2.138950243651095</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.316971640862519</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.52732619126323</v>
       </c>
       <c r="L19">
-        <v>6.394280287459599</v>
+        <v>7.516210591612964</v>
       </c>
       <c r="M19">
-        <v>16.57663011172044</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>13.82773191009686</v>
+        <v>17.80539363650385</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.45496591005982</v>
+        <v>21.50376955468628</v>
       </c>
       <c r="C20">
-        <v>21.32832055402038</v>
+        <v>7.735033432249244</v>
       </c>
       <c r="D20">
-        <v>4.990831345836714</v>
+        <v>2.214446438494232</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.79572824328056</v>
+        <v>44.15699248717982</v>
       </c>
       <c r="G20">
-        <v>2.033686268141589</v>
+        <v>2.135500216019385</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.308297988479279</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16.78275560423442</v>
       </c>
       <c r="L20">
-        <v>6.419630467416075</v>
+        <v>7.567679338980321</v>
       </c>
       <c r="M20">
-        <v>16.93493654473046</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>13.76344717627524</v>
+        <v>17.77078273659654</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.71084564979456</v>
+        <v>22.62688044922123</v>
       </c>
       <c r="C21">
-        <v>22.77625110147801</v>
+        <v>8.228145897614437</v>
       </c>
       <c r="D21">
-        <v>4.948458090609323</v>
+        <v>2.259311660605886</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.46355409851277</v>
+        <v>45.38789833779723</v>
       </c>
       <c r="G21">
-        <v>2.016246527829649</v>
+        <v>2.124005943278712</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.281432967127263</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>17.63145915275551</v>
       </c>
       <c r="L21">
-        <v>6.509751804750437</v>
+        <v>7.744094411172196</v>
       </c>
       <c r="M21">
-        <v>18.11114177275482</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>13.55656152376767</v>
+        <v>17.66204654757345</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.15176684431298</v>
+        <v>23.34954441493212</v>
       </c>
       <c r="C22">
-        <v>23.70154765563776</v>
+        <v>8.540813084361943</v>
       </c>
       <c r="D22">
-        <v>4.926755671730467</v>
+        <v>2.287597924825229</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.21196754045705</v>
+        <v>46.21125484602106</v>
       </c>
       <c r="G22">
-        <v>2.004784378573541</v>
+        <v>2.116552621583996</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.265621289195184</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.17885398756562</v>
       </c>
       <c r="L22">
-        <v>6.572556807645278</v>
+        <v>7.861980689209691</v>
       </c>
       <c r="M22">
-        <v>18.86073799561068</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>13.42889349852267</v>
+        <v>17.59695016169837</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.38558803422291</v>
+        <v>22.96489239776198</v>
       </c>
       <c r="C23">
-        <v>23.20947669686332</v>
+        <v>8.374792650003199</v>
       </c>
       <c r="D23">
-        <v>4.937740086971194</v>
+        <v>2.272596945118971</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.27816488864059</v>
+        <v>45.77005970141771</v>
       </c>
       <c r="G23">
-        <v>2.010910832549283</v>
+        <v>2.120526140364301</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.273897205533093</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>17.88737301783636</v>
       </c>
       <c r="L23">
-        <v>6.538664240657405</v>
+        <v>7.798825821972759</v>
       </c>
       <c r="M23">
-        <v>18.46231115233851</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>13.49628803217771</v>
+        <v>17.63112397368929</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.41749086352874</v>
+        <v>21.48522429280363</v>
       </c>
       <c r="C24">
-        <v>21.30426984608387</v>
+        <v>7.726806532579195</v>
       </c>
       <c r="D24">
-        <v>4.991614565767764</v>
+        <v>2.213695927801181</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.75216750505164</v>
+        <v>44.13718790492532</v>
       </c>
       <c r="G24">
-        <v>2.033970855300558</v>
+        <v>2.135689275672572</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.308765855250674</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.7687636831183</v>
       </c>
       <c r="L24">
-        <v>6.418220257291038</v>
+        <v>7.564839757490259</v>
       </c>
       <c r="M24">
-        <v>16.91536763185247</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>13.76694488100125</v>
+        <v>17.77265580881302</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.0558873912875</v>
+        <v>19.8424471002523</v>
       </c>
       <c r="C25">
-        <v>19.14618113259898</v>
+        <v>6.984444828456842</v>
       </c>
       <c r="D25">
-        <v>5.071049886954205</v>
+        <v>2.145846170782111</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.95530112980352</v>
+        <v>42.45509750948494</v>
       </c>
       <c r="G25">
-        <v>2.058834283129438</v>
+        <v>2.152383610841538</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.353568485866733</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.53257809765521</v>
       </c>
       <c r="L25">
-        <v>6.303723694185913</v>
+        <v>7.323659687599336</v>
       </c>
       <c r="M25">
-        <v>15.5513583695231</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>14.08669952645202</v>
+        <v>17.94883145848476</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.59671165193649</v>
+        <v>22.70222272539856</v>
       </c>
       <c r="C2">
-        <v>6.398379610491681</v>
+        <v>3.819600466652046</v>
       </c>
       <c r="D2">
-        <v>2.092336974343273</v>
+        <v>4.589169096951085</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>41.28323237466149</v>
+        <v>54.86760364773193</v>
       </c>
       <c r="G2">
-        <v>2.165053330849322</v>
+        <v>3.791704092098842</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.392445685218311</v>
+        <v>10.83336959216128</v>
       </c>
       <c r="K2">
-        <v>14.60013027625499</v>
+        <v>18.48738854425894</v>
       </c>
       <c r="L2">
-        <v>7.155878426126497</v>
+        <v>11.8897750698502</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.09676593045933</v>
+        <v>26.02863754829579</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.73329032388181</v>
+        <v>22.59509705840143</v>
       </c>
       <c r="C3">
-        <v>5.975689140372424</v>
+        <v>3.646408588272827</v>
       </c>
       <c r="D3">
-        <v>2.05395429286772</v>
+        <v>4.596911052096146</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>40.53022581651651</v>
+        <v>54.82522718275818</v>
       </c>
       <c r="G3">
-        <v>2.173913665096581</v>
+        <v>3.794908304184778</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.42233737974844</v>
+        <v>10.85196087598211</v>
       </c>
       <c r="K3">
-        <v>13.95694179102373</v>
+        <v>18.41762434232059</v>
       </c>
       <c r="L3">
-        <v>7.048397654254552</v>
+        <v>11.902778269244</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.20753493979828</v>
+        <v>26.06494950888041</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.19525261079097</v>
+        <v>22.53460620208896</v>
       </c>
       <c r="C4">
-        <v>5.703333297100886</v>
+        <v>3.550785219245515</v>
       </c>
       <c r="D4">
-        <v>2.029379204575438</v>
+        <v>4.602302241292524</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>40.08809361289762</v>
+        <v>54.80855162299557</v>
       </c>
       <c r="G4">
-        <v>2.179500516792219</v>
+        <v>3.79697909113301</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.442400820939506</v>
+        <v>10.86422404617488</v>
       </c>
       <c r="K4">
-        <v>13.55765388823992</v>
+        <v>18.37901317437258</v>
       </c>
       <c r="L4">
-        <v>6.985515607493068</v>
+        <v>11.91254530345754</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.28048680963199</v>
+        <v>26.08910746240619</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.97429837949829</v>
+        <v>22.51130415336243</v>
       </c>
       <c r="C5">
-        <v>5.589093056632419</v>
+        <v>3.511387507067019</v>
       </c>
       <c r="D5">
-        <v>2.019117395727088</v>
+        <v>4.604659952741948</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>39.91299274056374</v>
+        <v>54.80410905964022</v>
       </c>
       <c r="G5">
-        <v>2.181815629477837</v>
+        <v>3.797849043125195</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.451001476591177</v>
+        <v>10.86943505862132</v>
       </c>
       <c r="K5">
-        <v>13.3940560192004</v>
+        <v>18.36435270810898</v>
       </c>
       <c r="L5">
-        <v>6.960679216836866</v>
+        <v>11.91697409641503</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.31142385724515</v>
+        <v>26.09942039758225</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.93751566591912</v>
+        <v>22.50751684442817</v>
       </c>
       <c r="C6">
-        <v>5.569926353696621</v>
+        <v>3.504821752875753</v>
       </c>
       <c r="D6">
-        <v>2.017398687117585</v>
+        <v>4.605061170687037</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>39.88422320580748</v>
+        <v>54.80351355395411</v>
       </c>
       <c r="G6">
-        <v>2.182202417042907</v>
+        <v>3.797995076430651</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.452455108095507</v>
+        <v>10.87031326091775</v>
       </c>
       <c r="K6">
-        <v>13.36684410713883</v>
+        <v>18.3619835241757</v>
       </c>
       <c r="L6">
-        <v>6.956602937551645</v>
+        <v>11.91773659832167</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.31663300316511</v>
+        <v>26.10116114395053</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.19227921595414</v>
+        <v>22.53428645822224</v>
       </c>
       <c r="C7">
-        <v>5.701805818368289</v>
+        <v>3.550255532184509</v>
       </c>
       <c r="D7">
-        <v>2.029241802834788</v>
+        <v>4.602333386737216</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>40.0857116270661</v>
+        <v>54.80848217910955</v>
       </c>
       <c r="G7">
-        <v>2.179531581621745</v>
+        <v>3.796990717853251</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.442515099764094</v>
+        <v>10.86429345800524</v>
       </c>
       <c r="K7">
-        <v>13.55545082832282</v>
+        <v>18.37881109564692</v>
       </c>
       <c r="L7">
-        <v>6.98517745508662</v>
+        <v>11.91260321482487</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.2808991860447</v>
+        <v>26.08924464976484</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.30079952133463</v>
+        <v>22.66420126529245</v>
       </c>
       <c r="C8">
-        <v>6.255277972190949</v>
+        <v>3.747615963893701</v>
       </c>
       <c r="D8">
-        <v>2.079315395387781</v>
+        <v>4.591706449981204</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>41.01939367781897</v>
+        <v>54.85105527850109</v>
       </c>
       <c r="G8">
-        <v>2.168078929275542</v>
+        <v>3.792787501646844</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.402394156013465</v>
+        <v>10.83960410869852</v>
       </c>
       <c r="K8">
-        <v>14.37938384538978</v>
+        <v>18.46246447435838</v>
       </c>
       <c r="L8">
-        <v>7.11817716574142</v>
+        <v>11.89388870472836</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.13391287977392</v>
+        <v>26.04077145431201</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.40178680019562</v>
+        <v>22.95994904569182</v>
       </c>
       <c r="C9">
-        <v>7.240510198824625</v>
+        <v>4.238621891761761</v>
       </c>
       <c r="D9">
-        <v>2.169264876681744</v>
+        <v>4.575907041787667</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.01128894880542</v>
+        <v>55.00848951431673</v>
       </c>
       <c r="G9">
-        <v>2.146706855724382</v>
+        <v>3.785361157450185</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.337543320621858</v>
+        <v>10.79789843242937</v>
       </c>
       <c r="K9">
-        <v>15.95272016451294</v>
+        <v>18.65945539856244</v>
       </c>
       <c r="L9">
-        <v>7.40339312095962</v>
+        <v>11.87132220283266</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.88653296698925</v>
+        <v>25.9604881716559</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.89063301903781</v>
+        <v>23.20083443670275</v>
       </c>
       <c r="C10">
-        <v>7.905989859138607</v>
+        <v>4.563237009193221</v>
       </c>
       <c r="D10">
-        <v>2.230029307669162</v>
+        <v>4.567345760829246</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.57405447491558</v>
+        <v>55.1689164675298</v>
       </c>
       <c r="G10">
-        <v>2.13155141797357</v>
+        <v>3.780396714688746</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.298720620840519</v>
+        <v>10.77132227179129</v>
       </c>
       <c r="K10">
-        <v>17.07480379316755</v>
+        <v>18.82342240154654</v>
       </c>
       <c r="L10">
-        <v>7.627471024127226</v>
+        <v>11.86333525827713</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.73228607656287</v>
+        <v>25.91050525141422</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.55476298635125</v>
+        <v>23.31521508943556</v>
       </c>
       <c r="C11">
-        <v>8.19676050353395</v>
+        <v>4.703007959133656</v>
       </c>
       <c r="D11">
-        <v>2.256464444166569</v>
+        <v>4.56410679549252</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.30704449492865</v>
+        <v>55.25152310957283</v>
       </c>
       <c r="G11">
-        <v>2.124747030347973</v>
+        <v>3.778243779612408</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.283073063009105</v>
+        <v>10.76010936578986</v>
       </c>
       <c r="K11">
-        <v>17.57688593644693</v>
+        <v>18.90198744173383</v>
       </c>
       <c r="L11">
-        <v>7.732511987162415</v>
+        <v>11.86156104291459</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.66875199760836</v>
+        <v>25.88972048342698</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.80430638145263</v>
+        <v>23.35918854802472</v>
       </c>
       <c r="C12">
-        <v>8.305214154467619</v>
+        <v>4.754797080730023</v>
       </c>
       <c r="D12">
-        <v>2.266297410754665</v>
+        <v>4.562974057233045</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.58784449452238</v>
+        <v>55.2841780392403</v>
       </c>
       <c r="G12">
-        <v>2.122180692342369</v>
+        <v>3.777443582290193</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.277446397210642</v>
+        <v>10.75598898351531</v>
       </c>
       <c r="K12">
-        <v>17.76576426049911</v>
+        <v>18.93229069506966</v>
       </c>
       <c r="L12">
-        <v>7.772732711054339</v>
+        <v>11.86115579289233</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.64571101623075</v>
+        <v>25.88213060495733</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.75064987292869</v>
+        <v>23.34968921968928</v>
       </c>
       <c r="C13">
-        <v>8.281929208408901</v>
+        <v>4.743694065908228</v>
       </c>
       <c r="D13">
-        <v>2.264187654253094</v>
+        <v>4.563213849362592</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.52722422765746</v>
+        <v>55.27708431207752</v>
       </c>
       <c r="G13">
-        <v>2.122732983504552</v>
+        <v>3.777615250113846</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.278644757434424</v>
+        <v>10.75687079679421</v>
       </c>
       <c r="K13">
-        <v>17.72514192120013</v>
+        <v>18.92574009781623</v>
       </c>
       <c r="L13">
-        <v>7.764050725233282</v>
+        <v>11.86123122592679</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.65062692662158</v>
+        <v>25.88375272857831</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.57533229992768</v>
+        <v>23.31881976328764</v>
       </c>
       <c r="C14">
-        <v>8.205715818760327</v>
+        <v>4.707291524436993</v>
       </c>
       <c r="D14">
-        <v>2.257276985104653</v>
+        <v>4.564011727629065</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.33008087313365</v>
+        <v>55.25418218844088</v>
       </c>
       <c r="G14">
-        <v>2.124535704794546</v>
+        <v>3.778177645313428</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.282604110708588</v>
+        <v>10.75976786231571</v>
       </c>
       <c r="K14">
-        <v>17.59245026864865</v>
+        <v>18.9044695521909</v>
       </c>
       <c r="L14">
-        <v>7.735812077785178</v>
+        <v>11.8615223640601</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.66683560603552</v>
+        <v>25.88909043028075</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.46769050689022</v>
+        <v>23.29999635855182</v>
       </c>
       <c r="C15">
-        <v>8.158819454987585</v>
+        <v>4.684845498525585</v>
       </c>
       <c r="D15">
-        <v>2.253020784728767</v>
+        <v>4.564512650329043</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.20974799533584</v>
+        <v>55.24033251326063</v>
       </c>
       <c r="G15">
-        <v>2.125641188371282</v>
+        <v>3.778524088946594</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.285068521699539</v>
+        <v>10.76155875776703</v>
       </c>
       <c r="K15">
-        <v>17.51100922908418</v>
+        <v>18.89151207504349</v>
       </c>
       <c r="L15">
-        <v>7.718572877574675</v>
+        <v>11.86173539143083</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.67689849376481</v>
+        <v>25.89239650521382</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.84696011664195</v>
+        <v>23.19345342829405</v>
       </c>
       <c r="C16">
-        <v>7.886752037232939</v>
+        <v>4.55394339463594</v>
       </c>
       <c r="D16">
-        <v>2.22827707933545</v>
+        <v>4.567570585899677</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>44.52660051561323</v>
+        <v>55.16371076414357</v>
       </c>
       <c r="G16">
-        <v>2.131997693929982</v>
+        <v>3.780539527906631</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.299784503826087</v>
+        <v>10.77207267179577</v>
       </c>
       <c r="K16">
-        <v>17.04181859424068</v>
+        <v>18.81836636265916</v>
       </c>
       <c r="L16">
-        <v>7.620668568976807</v>
+        <v>11.86348855698017</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.73657697356355</v>
+        <v>25.91190288384368</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.46274008702883</v>
+        <v>23.12930116903292</v>
       </c>
       <c r="C17">
-        <v>7.716828252257129</v>
+        <v>4.471613388014344</v>
       </c>
       <c r="D17">
-        <v>2.212785575503576</v>
+        <v>4.569614103690963</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>44.11320026716526</v>
+        <v>55.11916436796601</v>
       </c>
       <c r="G17">
-        <v>2.135918463989514</v>
+        <v>3.781802872298661</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.309334179877327</v>
+        <v>10.77874690319738</v>
       </c>
       <c r="K17">
-        <v>16.7518009474871</v>
+        <v>18.77449866445986</v>
       </c>
       <c r="L17">
-        <v>7.5614003777865</v>
+        <v>11.86503973641704</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.77493011574142</v>
+        <v>25.92436959609783</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.24050962605236</v>
+        <v>23.09285624897632</v>
       </c>
       <c r="C18">
-        <v>7.617962597241505</v>
+        <v>4.423516027538598</v>
       </c>
       <c r="D18">
-        <v>2.203761874631593</v>
+        <v>4.570851219661264</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>43.87749692915347</v>
+        <v>55.09444939067509</v>
       </c>
       <c r="G18">
-        <v>2.138182218151061</v>
+        <v>3.782539441838036</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.315015777175392</v>
+        <v>10.78266828781812</v>
       </c>
       <c r="K18">
-        <v>16.58420451131952</v>
+        <v>18.74964255085804</v>
       </c>
       <c r="L18">
-        <v>7.527603333608256</v>
+        <v>11.86610696934323</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.79760995750656</v>
+        <v>25.93172391375723</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.1650560928243</v>
+        <v>23.08059546356251</v>
       </c>
       <c r="C19">
-        <v>7.584292451459038</v>
+        <v>4.407103551212245</v>
       </c>
       <c r="D19">
-        <v>2.200687254994255</v>
+        <v>4.571280704168236</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>43.79804660634311</v>
+        <v>55.08623739912406</v>
       </c>
       <c r="G19">
-        <v>2.138950243651095</v>
+        <v>3.782790539272832</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.316971640862519</v>
+        <v>10.78401018946001</v>
       </c>
       <c r="K19">
-        <v>16.52732619126323</v>
+        <v>18.74129174994656</v>
       </c>
       <c r="L19">
-        <v>7.516210591612964</v>
+        <v>11.86649839918318</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.80539363650385</v>
+        <v>25.93424552431938</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.50376955468628</v>
+        <v>23.13608353983824</v>
       </c>
       <c r="C20">
-        <v>7.735033432249244</v>
+        <v>4.48045451770729</v>
       </c>
       <c r="D20">
-        <v>2.214446438494232</v>
+        <v>4.569390181504096</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>44.15699248717982</v>
+        <v>55.12381261859925</v>
       </c>
       <c r="G20">
-        <v>2.135500216019385</v>
+        <v>3.781667360325886</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.308297988479279</v>
+        <v>10.77802787966159</v>
       </c>
       <c r="K20">
-        <v>16.78275560423442</v>
+        <v>18.77912973752252</v>
       </c>
       <c r="L20">
-        <v>7.567679338980321</v>
+        <v>11.86485650019305</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.77078273659654</v>
+        <v>25.92302347092354</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.62688044922123</v>
+        <v>23.32786920683286</v>
       </c>
       <c r="C21">
-        <v>8.228145897614437</v>
+        <v>4.718014767357812</v>
       </c>
       <c r="D21">
-        <v>2.259311660605886</v>
+        <v>4.563774830024793</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.38789833779723</v>
+        <v>55.26087191160514</v>
       </c>
       <c r="G21">
-        <v>2.124005943278712</v>
+        <v>3.778012047831678</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.281432967127263</v>
+        <v>10.75891351536596</v>
       </c>
       <c r="K21">
-        <v>17.63145915275551</v>
+        <v>18.91070239435152</v>
       </c>
       <c r="L21">
-        <v>7.744094411172196</v>
+        <v>11.86142962037213</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.66204654757345</v>
+        <v>25.88751499484659</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.34954441493212</v>
+        <v>23.45704425116999</v>
       </c>
       <c r="C22">
-        <v>8.540813084361943</v>
+        <v>4.86663403320794</v>
       </c>
       <c r="D22">
-        <v>2.287597924825229</v>
+        <v>4.560651303624851</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>46.21125484602106</v>
+        <v>55.35844843421886</v>
       </c>
       <c r="G22">
-        <v>2.116552621583996</v>
+        <v>3.775710904108607</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.265621289195184</v>
+        <v>10.74715369050144</v>
       </c>
       <c r="K22">
-        <v>18.17885398756562</v>
+        <v>18.99990279516884</v>
       </c>
       <c r="L22">
-        <v>7.861980689209691</v>
+        <v>11.86074353977478</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.59695016169837</v>
+        <v>25.86594526553379</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.96489239776198</v>
+        <v>23.38776079624352</v>
       </c>
       <c r="C23">
-        <v>8.374792650003199</v>
+        <v>4.787921425749707</v>
       </c>
       <c r="D23">
-        <v>2.272596945118971</v>
+        <v>4.562268554517262</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>45.77005970141771</v>
+        <v>55.30564190205835</v>
       </c>
       <c r="G23">
-        <v>2.120526140364301</v>
+        <v>3.776931061109868</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.273897205533093</v>
+        <v>10.75336322642229</v>
       </c>
       <c r="K23">
-        <v>17.88737301783636</v>
+        <v>18.95200776552172</v>
       </c>
       <c r="L23">
-        <v>7.798825821972759</v>
+        <v>11.86096782599065</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.63112397368929</v>
+        <v>25.87730761767348</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.48522429280363</v>
+        <v>23.13301586629094</v>
       </c>
       <c r="C24">
-        <v>7.726806532579195</v>
+        <v>4.476459824745641</v>
       </c>
       <c r="D24">
-        <v>2.213695927801181</v>
+        <v>4.569491222735929</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>44.13718790492532</v>
+        <v>55.12170835474851</v>
       </c>
       <c r="G24">
-        <v>2.135689275672572</v>
+        <v>3.781728593336195</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.308765855250674</v>
+        <v>10.7783526876534</v>
       </c>
       <c r="K24">
-        <v>16.7687636831183</v>
+        <v>18.77703489408611</v>
       </c>
       <c r="L24">
-        <v>7.564839757490259</v>
+        <v>11.86493879477199</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.77265580881302</v>
+        <v>25.92363147147919</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.8424471002523</v>
+        <v>22.87569015685051</v>
       </c>
       <c r="C25">
-        <v>6.984444828456842</v>
+        <v>4.112108177394001</v>
       </c>
       <c r="D25">
-        <v>2.145846170782111</v>
+        <v>4.57964426881657</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.45509750948494</v>
+        <v>54.9580105439933</v>
       </c>
       <c r="G25">
-        <v>2.152383610841538</v>
+        <v>3.787283412974433</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.353568485866733</v>
+        <v>10.80846522532953</v>
       </c>
       <c r="K25">
-        <v>15.53257809765521</v>
+        <v>18.6027196151009</v>
       </c>
       <c r="L25">
-        <v>7.323659687599336</v>
+        <v>11.87591606563936</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.94883145848476</v>
+        <v>25.98062591561596</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.70222272539856</v>
+        <v>18.59671165193647</v>
       </c>
       <c r="C2">
-        <v>3.819600466652046</v>
+        <v>6.398379610491737</v>
       </c>
       <c r="D2">
-        <v>4.589169096951085</v>
+        <v>2.092336974343385</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>54.86760364773193</v>
+        <v>41.28323237466133</v>
       </c>
       <c r="G2">
-        <v>3.791704092098842</v>
+        <v>2.165053330849186</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.83336959216128</v>
+        <v>6.392445685218341</v>
       </c>
       <c r="K2">
-        <v>18.48738854425894</v>
+        <v>14.60013027625495</v>
       </c>
       <c r="L2">
-        <v>11.8897750698502</v>
+        <v>7.155878426126491</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>26.02863754829579</v>
+        <v>18.0967659304593</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.59509705840143</v>
+        <v>17.73329032388176</v>
       </c>
       <c r="C3">
-        <v>3.646408588272827</v>
+        <v>5.975689140372304</v>
       </c>
       <c r="D3">
-        <v>4.596911052096146</v>
+        <v>2.053954292867854</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.82522718275818</v>
+        <v>40.5302258165164</v>
       </c>
       <c r="G3">
-        <v>3.794908304184778</v>
+        <v>2.173913665096448</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.85196087598211</v>
+        <v>6.422337379748436</v>
       </c>
       <c r="K3">
-        <v>18.41762434232059</v>
+        <v>13.95694179102374</v>
       </c>
       <c r="L3">
-        <v>11.902778269244</v>
+        <v>7.048397654254611</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>26.06494950888041</v>
+        <v>18.20753493979823</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.53460620208896</v>
+        <v>17.19525261079091</v>
       </c>
       <c r="C4">
-        <v>3.550785219245515</v>
+        <v>5.703333297100658</v>
       </c>
       <c r="D4">
-        <v>4.602302241292524</v>
+        <v>2.029379204575493</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>54.80855162299557</v>
+        <v>40.08809361289762</v>
       </c>
       <c r="G4">
-        <v>3.79697909113301</v>
+        <v>2.179500516791685</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.86422404617488</v>
+        <v>6.442400820939478</v>
       </c>
       <c r="K4">
-        <v>18.37901317437258</v>
+        <v>13.55765388823991</v>
       </c>
       <c r="L4">
-        <v>11.91254530345754</v>
+        <v>6.985515607493131</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>26.08910746240619</v>
+        <v>18.28048680963196</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.51130415336243</v>
+        <v>16.97429837949826</v>
       </c>
       <c r="C5">
-        <v>3.511387507067019</v>
+        <v>5.589093056632334</v>
       </c>
       <c r="D5">
-        <v>4.604659952741948</v>
+        <v>2.019117395727197</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>54.80410905964022</v>
+        <v>39.91299274056375</v>
       </c>
       <c r="G5">
-        <v>3.797849043125195</v>
+        <v>2.1818156294777</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.86943505862132</v>
+        <v>6.451001476591209</v>
       </c>
       <c r="K5">
-        <v>18.36435270810898</v>
+        <v>13.39405601920041</v>
       </c>
       <c r="L5">
-        <v>11.91697409641503</v>
+        <v>6.960679216836881</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>26.09942039758225</v>
+        <v>18.31142385724513</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.50751684442817</v>
+        <v>16.93751566591908</v>
       </c>
       <c r="C6">
-        <v>3.504821752875753</v>
+        <v>5.569926353696385</v>
       </c>
       <c r="D6">
-        <v>4.605061170687037</v>
+        <v>2.017398687117761</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>54.80351355395411</v>
+        <v>39.88422320580757</v>
       </c>
       <c r="G6">
-        <v>3.797995076430651</v>
+        <v>2.182202417042774</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.87031326091775</v>
+        <v>6.452455108095541</v>
       </c>
       <c r="K6">
-        <v>18.3619835241757</v>
+        <v>13.36684410713887</v>
       </c>
       <c r="L6">
-        <v>11.91773659832167</v>
+        <v>6.956602937551723</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>26.10116114395053</v>
+        <v>18.31663300316514</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.53428645822224</v>
+        <v>17.19227921595417</v>
       </c>
       <c r="C7">
-        <v>3.550255532184509</v>
+        <v>5.701805818368437</v>
       </c>
       <c r="D7">
-        <v>4.602333386737216</v>
+        <v>2.029241802834485</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>54.80848217910955</v>
+        <v>40.0857116270664</v>
       </c>
       <c r="G7">
-        <v>3.796990717853251</v>
+        <v>2.179531581621875</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.86429345800524</v>
+        <v>6.442515099764067</v>
       </c>
       <c r="K7">
-        <v>18.37881109564692</v>
+        <v>13.55545082832283</v>
       </c>
       <c r="L7">
-        <v>11.91260321482487</v>
+        <v>6.985177455086641</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>26.08924464976484</v>
+        <v>18.28089918604482</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.66420126529245</v>
+        <v>18.30079952133467</v>
       </c>
       <c r="C8">
-        <v>3.747615963893701</v>
+        <v>6.255277972191096</v>
       </c>
       <c r="D8">
-        <v>4.591706449981204</v>
+        <v>2.079315395387558</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>54.85105527850109</v>
+        <v>41.01939367781905</v>
       </c>
       <c r="G8">
-        <v>3.792787501646844</v>
+        <v>2.168078929275675</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.83960410869852</v>
+        <v>6.402394156013398</v>
       </c>
       <c r="K8">
-        <v>18.46246447435838</v>
+        <v>14.37938384538978</v>
       </c>
       <c r="L8">
-        <v>11.89388870472836</v>
+        <v>7.118177165741445</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>26.04077145431201</v>
+        <v>18.13391287977391</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.95994904569182</v>
+        <v>20.40178680019566</v>
       </c>
       <c r="C9">
-        <v>4.238621891761761</v>
+        <v>7.240510198824753</v>
       </c>
       <c r="D9">
-        <v>4.575907041787667</v>
+        <v>2.169264876681991</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>55.00848951431673</v>
+        <v>43.01128894880527</v>
       </c>
       <c r="G9">
-        <v>3.785361157450185</v>
+        <v>2.146706855724121</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.79789843242937</v>
+        <v>6.337543320622034</v>
       </c>
       <c r="K9">
-        <v>18.65945539856244</v>
+        <v>15.95272016451295</v>
       </c>
       <c r="L9">
-        <v>11.87132220283266</v>
+        <v>7.403393120959582</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>25.9604881716559</v>
+        <v>17.88653296698919</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.20083443670275</v>
+        <v>21.89063301903777</v>
       </c>
       <c r="C10">
-        <v>4.563237009193221</v>
+        <v>7.905989859138447</v>
       </c>
       <c r="D10">
-        <v>4.567345760829246</v>
+        <v>2.2300293076694</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>55.1689164675298</v>
+        <v>44.5740544749155</v>
       </c>
       <c r="G10">
-        <v>3.780396714688746</v>
+        <v>2.131551417973307</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.77132227179129</v>
+        <v>6.298720620840569</v>
       </c>
       <c r="K10">
-        <v>18.82342240154654</v>
+        <v>17.07480379316753</v>
       </c>
       <c r="L10">
-        <v>11.86333525827713</v>
+        <v>7.627471024127209</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>25.91050525141422</v>
+        <v>17.73228607656285</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.31521508943556</v>
+        <v>22.55476298635126</v>
       </c>
       <c r="C11">
-        <v>4.703007959133656</v>
+        <v>8.196760503534023</v>
       </c>
       <c r="D11">
-        <v>4.56410679549252</v>
+        <v>2.256464444166657</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>55.25152310957283</v>
+        <v>45.30704449492865</v>
       </c>
       <c r="G11">
-        <v>3.778243779612408</v>
+        <v>2.124747030347971</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.76010936578986</v>
+        <v>6.283073063009188</v>
       </c>
       <c r="K11">
-        <v>18.90198744173383</v>
+        <v>17.57688593644693</v>
       </c>
       <c r="L11">
-        <v>11.86156104291459</v>
+        <v>7.732511987162441</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>25.88972048342698</v>
+        <v>17.66875199760841</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.35918854802472</v>
+        <v>22.80430638145264</v>
       </c>
       <c r="C12">
-        <v>4.754797080730023</v>
+        <v>8.305214154467894</v>
       </c>
       <c r="D12">
-        <v>4.562974057233045</v>
+        <v>2.266297410754788</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>55.2841780392403</v>
+        <v>45.58784449452231</v>
       </c>
       <c r="G12">
-        <v>3.777443582290193</v>
+        <v>2.122180692342504</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.75598898351531</v>
+        <v>6.277446397210729</v>
       </c>
       <c r="K12">
-        <v>18.93229069506966</v>
+        <v>17.7657642604991</v>
       </c>
       <c r="L12">
-        <v>11.86115579289233</v>
+        <v>7.772732711054317</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>25.88213060495733</v>
+        <v>17.64571101623069</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.34968921968928</v>
+        <v>22.7506498729287</v>
       </c>
       <c r="C13">
-        <v>4.743694065908228</v>
+        <v>8.281929208408929</v>
       </c>
       <c r="D13">
-        <v>4.563213849362592</v>
+        <v>2.264187654252997</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>55.27708431207752</v>
+        <v>45.52722422765746</v>
       </c>
       <c r="G13">
-        <v>3.777615250113846</v>
+        <v>2.12273298350415</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.75687079679421</v>
+        <v>6.278644757434392</v>
       </c>
       <c r="K13">
-        <v>18.92574009781623</v>
+        <v>17.72514192120012</v>
       </c>
       <c r="L13">
-        <v>11.86123122592679</v>
+        <v>7.764050725233278</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>25.88375272857831</v>
+        <v>17.65062692662161</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.31881976328764</v>
+        <v>22.57533229992772</v>
       </c>
       <c r="C14">
-        <v>4.707291524436993</v>
+        <v>8.205715818760442</v>
       </c>
       <c r="D14">
-        <v>4.564011727629065</v>
+        <v>2.257276985104667</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>55.25418218844088</v>
+        <v>45.33008087313367</v>
       </c>
       <c r="G14">
-        <v>3.778177645313428</v>
+        <v>2.124535704794817</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.75976786231571</v>
+        <v>6.282604110708588</v>
       </c>
       <c r="K14">
-        <v>18.9044695521909</v>
+        <v>17.59245026864866</v>
       </c>
       <c r="L14">
-        <v>11.8615223640601</v>
+        <v>7.735812077785144</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>25.88909043028075</v>
+        <v>17.66683560603549</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.29999635855182</v>
+        <v>22.46769050689022</v>
       </c>
       <c r="C15">
-        <v>4.684845498525585</v>
+        <v>8.158819454987569</v>
       </c>
       <c r="D15">
-        <v>4.564512650329043</v>
+        <v>2.253020784728871</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>55.24033251326063</v>
+        <v>45.20974799533563</v>
       </c>
       <c r="G15">
-        <v>3.778524088946594</v>
+        <v>2.125641188370883</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.76155875776703</v>
+        <v>6.285068521699542</v>
       </c>
       <c r="K15">
-        <v>18.89151207504349</v>
+        <v>17.51100922908418</v>
       </c>
       <c r="L15">
-        <v>11.86173539143083</v>
+        <v>7.718572877574633</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>25.89239650521382</v>
+        <v>17.67689849376465</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.19345342829405</v>
+        <v>21.84696011664196</v>
       </c>
       <c r="C16">
-        <v>4.55394339463594</v>
+        <v>7.886752037232998</v>
       </c>
       <c r="D16">
-        <v>4.567570585899677</v>
+        <v>2.228277079335441</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>55.16371076414357</v>
+        <v>44.5266005156131</v>
       </c>
       <c r="G16">
-        <v>3.780539527906631</v>
+        <v>2.131997693929853</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.77207267179577</v>
+        <v>6.299784503826116</v>
       </c>
       <c r="K16">
-        <v>18.81836636265916</v>
+        <v>17.04181859424066</v>
       </c>
       <c r="L16">
-        <v>11.86348855698017</v>
+        <v>7.620668568976767</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>25.91190288384368</v>
+        <v>17.7365769735635</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.12930116903292</v>
+        <v>21.46274008702882</v>
       </c>
       <c r="C17">
-        <v>4.471613388014344</v>
+        <v>7.716828252257043</v>
       </c>
       <c r="D17">
-        <v>4.569614103690963</v>
+        <v>2.212785575503696</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>55.11916436796601</v>
+        <v>44.11320026716518</v>
       </c>
       <c r="G17">
-        <v>3.781802872298661</v>
+        <v>2.135918463989383</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.77874690319738</v>
+        <v>6.309334179877267</v>
       </c>
       <c r="K17">
-        <v>18.77449866445986</v>
+        <v>16.75180094748709</v>
       </c>
       <c r="L17">
-        <v>11.86503973641704</v>
+        <v>7.561400377786411</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>25.92436959609783</v>
+        <v>17.77493011574143</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.09285624897632</v>
+        <v>21.24050962605241</v>
       </c>
       <c r="C18">
-        <v>4.423516027538598</v>
+        <v>7.617962597241477</v>
       </c>
       <c r="D18">
-        <v>4.570851219661264</v>
+        <v>2.203761874631385</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>55.09444939067509</v>
+        <v>43.87749692915372</v>
       </c>
       <c r="G18">
-        <v>3.782539441838036</v>
+        <v>2.138182218151198</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.78266828781812</v>
+        <v>6.315015777175328</v>
       </c>
       <c r="K18">
-        <v>18.74964255085804</v>
+        <v>16.58420451131953</v>
       </c>
       <c r="L18">
-        <v>11.86610696934323</v>
+        <v>7.52760333360826</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>25.93172391375723</v>
+        <v>17.79760995750671</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.08059546356251</v>
+        <v>21.1650560928243</v>
       </c>
       <c r="C19">
-        <v>4.407103551212245</v>
+        <v>7.584292451458982</v>
       </c>
       <c r="D19">
-        <v>4.571280704168236</v>
+        <v>2.20068725499427</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>55.08623739912406</v>
+        <v>43.79804660634278</v>
       </c>
       <c r="G19">
-        <v>3.782790539272832</v>
+        <v>2.138950243650837</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.78401018946001</v>
+        <v>6.316971640862401</v>
       </c>
       <c r="K19">
-        <v>18.74129174994656</v>
+        <v>16.52732619126319</v>
       </c>
       <c r="L19">
-        <v>11.86649839918318</v>
+        <v>7.51621059161291</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>25.93424552431938</v>
+        <v>17.80539363650363</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.13608353983824</v>
+        <v>21.50376955468627</v>
       </c>
       <c r="C20">
-        <v>4.48045451770729</v>
+        <v>7.735033432249315</v>
       </c>
       <c r="D20">
-        <v>4.569390181504096</v>
+        <v>2.214446438494343</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>55.12381261859925</v>
+        <v>44.15699248717967</v>
       </c>
       <c r="G20">
-        <v>3.781667360325886</v>
+        <v>2.13550021601925</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.77802787966159</v>
+        <v>6.308297988479364</v>
       </c>
       <c r="K20">
-        <v>18.77912973752252</v>
+        <v>16.78275560423443</v>
       </c>
       <c r="L20">
-        <v>11.86485650019305</v>
+        <v>7.567679338980327</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>25.92302347092354</v>
+        <v>17.77078273659651</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.32786920683286</v>
+        <v>22.6268804492212</v>
       </c>
       <c r="C21">
-        <v>4.718014767357812</v>
+        <v>8.228145897614583</v>
       </c>
       <c r="D21">
-        <v>4.563774830024793</v>
+        <v>2.259311660605897</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>55.26087191160514</v>
+        <v>45.38789833779713</v>
       </c>
       <c r="G21">
-        <v>3.778012047831678</v>
+        <v>2.124005943278716</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.75891351536596</v>
+        <v>6.281432967127251</v>
       </c>
       <c r="K21">
-        <v>18.91070239435152</v>
+        <v>17.63145915275549</v>
       </c>
       <c r="L21">
-        <v>11.86142962037213</v>
+        <v>7.744094411172142</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>25.88751499484659</v>
+        <v>17.66204654757342</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.45704425116999</v>
+        <v>23.34954441493208</v>
       </c>
       <c r="C22">
-        <v>4.86663403320794</v>
+        <v>8.540813084361925</v>
       </c>
       <c r="D22">
-        <v>4.560651303624851</v>
+        <v>2.287597924825393</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>55.35844843421886</v>
+        <v>46.21125484602113</v>
       </c>
       <c r="G22">
-        <v>3.775710904108607</v>
+        <v>2.116552621584264</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.74715369050144</v>
+        <v>6.265621289195201</v>
       </c>
       <c r="K22">
-        <v>18.99990279516884</v>
+        <v>18.1788539875656</v>
       </c>
       <c r="L22">
-        <v>11.86074353977478</v>
+        <v>7.861980689209652</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>25.86594526553379</v>
+        <v>17.59695016169854</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.38776079624352</v>
+        <v>22.964892397762</v>
       </c>
       <c r="C23">
-        <v>4.787921425749707</v>
+        <v>8.374792650003361</v>
       </c>
       <c r="D23">
-        <v>4.562268554517262</v>
+        <v>2.272596945119147</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>55.30564190205835</v>
+        <v>45.77005970141769</v>
       </c>
       <c r="G23">
-        <v>3.776931061109868</v>
+        <v>2.120526140364302</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.75336322642229</v>
+        <v>6.273897205533037</v>
       </c>
       <c r="K23">
-        <v>18.95200776552172</v>
+        <v>17.88737301783636</v>
       </c>
       <c r="L23">
-        <v>11.86096782599065</v>
+        <v>7.798825821972666</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>25.87730761767348</v>
+        <v>17.63112397368929</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.13301586629094</v>
+        <v>21.48522429280365</v>
       </c>
       <c r="C24">
-        <v>4.476459824745641</v>
+        <v>7.726806532579253</v>
       </c>
       <c r="D24">
-        <v>4.569491222735929</v>
+        <v>2.213695927801181</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>55.12170835474851</v>
+        <v>44.13718790492533</v>
       </c>
       <c r="G24">
-        <v>3.781728593336195</v>
+        <v>2.135689275672572</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.7783526876534</v>
+        <v>6.308765855250672</v>
       </c>
       <c r="K24">
-        <v>18.77703489408611</v>
+        <v>16.76876368311831</v>
       </c>
       <c r="L24">
-        <v>11.86493879477199</v>
+        <v>7.564839757490217</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>25.92363147147919</v>
+        <v>17.77265580881306</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.87569015685051</v>
+        <v>19.84244710025232</v>
       </c>
       <c r="C25">
-        <v>4.112108177394001</v>
+        <v>6.984444828456827</v>
       </c>
       <c r="D25">
-        <v>4.57964426881657</v>
+        <v>2.145846170782106</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>54.9580105439933</v>
+        <v>42.45509750948511</v>
       </c>
       <c r="G25">
-        <v>3.787283412974433</v>
+        <v>2.152383610841807</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.80846522532953</v>
+        <v>6.353568485866763</v>
       </c>
       <c r="K25">
-        <v>18.6027196151009</v>
+        <v>15.53257809765524</v>
       </c>
       <c r="L25">
-        <v>11.87591606563936</v>
+        <v>7.32365968759937</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>25.98062591561596</v>
+        <v>17.94883145848488</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.59671165193647</v>
+        <v>20.43089098275077</v>
       </c>
       <c r="C2">
-        <v>6.398379610491737</v>
+        <v>15.60268501880057</v>
       </c>
       <c r="D2">
-        <v>2.092336974343385</v>
+        <v>4.026980749586192</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>41.28323237466133</v>
+        <v>24.2682066257347</v>
       </c>
       <c r="G2">
-        <v>2.165053330849186</v>
+        <v>33.90328548898452</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.098851262690007</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.545030878769302</v>
       </c>
       <c r="J2">
-        <v>6.392445685218341</v>
+        <v>10.85982540389294</v>
       </c>
       <c r="K2">
-        <v>14.60013027625495</v>
+        <v>17.06274171102986</v>
       </c>
       <c r="L2">
-        <v>7.155878426126491</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.0967659304593</v>
+        <v>7.375670193321142</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.80128396474152</v>
+      </c>
+      <c r="P2">
+        <v>12.54143282901768</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.73329032388176</v>
+        <v>19.05619344258621</v>
       </c>
       <c r="C3">
-        <v>5.975689140372304</v>
+        <v>14.74570447873646</v>
       </c>
       <c r="D3">
-        <v>2.053954292867854</v>
+        <v>3.973807191379774</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>40.5302258165164</v>
+        <v>23.32547282722283</v>
       </c>
       <c r="G3">
-        <v>2.173913665096448</v>
+        <v>32.41361792728237</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.313443321344812</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.593996227259908</v>
       </c>
       <c r="J3">
-        <v>6.422337379748436</v>
+        <v>10.67604767769135</v>
       </c>
       <c r="K3">
-        <v>13.95694179102374</v>
+        <v>16.88042141347963</v>
       </c>
       <c r="L3">
-        <v>7.048397654254611</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.20753493979823</v>
+        <v>7.185296190705354</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.20021790665625</v>
+      </c>
+      <c r="P3">
+        <v>12.68737344774585</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.19525261079091</v>
+        <v>18.16031293746613</v>
       </c>
       <c r="C4">
-        <v>5.703333297100658</v>
+        <v>14.19664882359974</v>
       </c>
       <c r="D4">
-        <v>2.029379204575493</v>
+        <v>3.940248900907756</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>40.08809361289762</v>
+        <v>22.73783748300032</v>
       </c>
       <c r="G4">
-        <v>2.179500516791685</v>
+        <v>31.47797710933541</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.449749717965548</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.720301703007513</v>
       </c>
       <c r="J4">
-        <v>6.442400820939478</v>
+        <v>10.56558213644812</v>
       </c>
       <c r="K4">
-        <v>13.55765388823991</v>
+        <v>16.77170504857115</v>
       </c>
       <c r="L4">
-        <v>6.985515607493131</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.28048680963196</v>
+        <v>7.065390151028733</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.81586976754118</v>
+      </c>
+      <c r="P4">
+        <v>12.77841015615303</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.97429837949826</v>
+        <v>17.7893594983011</v>
       </c>
       <c r="C5">
-        <v>5.589093056632334</v>
+        <v>13.97307067532862</v>
       </c>
       <c r="D5">
-        <v>2.019117395727197</v>
+        <v>3.927132224085465</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>39.91299274056375</v>
+        <v>22.48576895058715</v>
       </c>
       <c r="G5">
-        <v>2.1818156294777</v>
+        <v>31.07239538906958</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.50684118917171</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.776179310699696</v>
       </c>
       <c r="J5">
-        <v>6.451001476591209</v>
+        <v>10.51754223238928</v>
       </c>
       <c r="K5">
-        <v>13.39405601920041</v>
+        <v>16.72040760526977</v>
       </c>
       <c r="L5">
-        <v>6.960679216836881</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.31142385724513</v>
+        <v>7.015849274278875</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.65350647575494</v>
+      </c>
+      <c r="P5">
+        <v>12.81564775754553</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.93751566591908</v>
+        <v>17.71937250178904</v>
       </c>
       <c r="C6">
-        <v>5.569926353696385</v>
+        <v>13.94278118281655</v>
       </c>
       <c r="D6">
-        <v>2.017398687117761</v>
+        <v>3.925905786018499</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>39.88422320580757</v>
+        <v>22.43069339303925</v>
       </c>
       <c r="G6">
-        <v>2.182202417042774</v>
+        <v>30.98088361215339</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.516858796075144</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.789545048050859</v>
       </c>
       <c r="J6">
-        <v>6.452455108095541</v>
+        <v>10.50514364069547</v>
       </c>
       <c r="K6">
-        <v>13.36684410713887</v>
+        <v>16.70239760881826</v>
       </c>
       <c r="L6">
-        <v>6.956602937551723</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.31663300316514</v>
+        <v>7.007646358662785</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.62382286612554</v>
+      </c>
+      <c r="P6">
+        <v>12.82157858694207</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.19227921595417</v>
+        <v>18.13498329159579</v>
       </c>
       <c r="C7">
-        <v>5.701805818368437</v>
+        <v>14.2129018380188</v>
       </c>
       <c r="D7">
-        <v>2.029241802834485</v>
+        <v>3.942722939387581</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>40.0857116270664</v>
+        <v>22.6990887206343</v>
       </c>
       <c r="G7">
-        <v>2.179531581621875</v>
+        <v>31.40824504315303</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.451770562982916</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.731721867532718</v>
       </c>
       <c r="J7">
-        <v>6.442515099764067</v>
+        <v>10.55281987280815</v>
       </c>
       <c r="K7">
-        <v>13.55545082832283</v>
+        <v>16.74504635446887</v>
       </c>
       <c r="L7">
-        <v>6.985177455086641</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.28089918604482</v>
+        <v>7.064916802859765</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.80696235412776</v>
+      </c>
+      <c r="P7">
+        <v>12.77823092716183</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.30079952133467</v>
+        <v>19.94327507833875</v>
       </c>
       <c r="C8">
-        <v>6.255277972191096</v>
+        <v>15.3358884887855</v>
       </c>
       <c r="D8">
-        <v>2.079315395387558</v>
+        <v>4.012407409491356</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>41.01939367781905</v>
+        <v>23.90053668024263</v>
       </c>
       <c r="G8">
-        <v>2.168078929275675</v>
+        <v>33.31366873201806</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.17348984872315</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.482863134046754</v>
       </c>
       <c r="J8">
-        <v>6.402394156013398</v>
+        <v>10.78029495596566</v>
       </c>
       <c r="K8">
-        <v>14.37938384538978</v>
+        <v>16.96534484189941</v>
       </c>
       <c r="L8">
-        <v>7.118177165741445</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.13391287977391</v>
+        <v>7.310964503321629</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.58887053405607</v>
+      </c>
+      <c r="P8">
+        <v>12.59088751098791</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.40178680019566</v>
+        <v>23.10224082456433</v>
       </c>
       <c r="C9">
-        <v>7.240510198824753</v>
+        <v>17.32389293520523</v>
       </c>
       <c r="D9">
-        <v>2.169264876681991</v>
+        <v>4.136898130786957</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.01128894880527</v>
+        <v>26.23340215357134</v>
       </c>
       <c r="G9">
-        <v>2.146706855724121</v>
+        <v>36.97173181745421</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.660823303866783</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.938875913458371</v>
       </c>
       <c r="J9">
-        <v>6.337543320622034</v>
+        <v>11.26520543282825</v>
       </c>
       <c r="K9">
-        <v>15.95272016451295</v>
+        <v>17.46874019582508</v>
       </c>
       <c r="L9">
-        <v>7.403393120959582</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.88653296698919</v>
+        <v>7.768084983610532</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.00643316292528</v>
+      </c>
+      <c r="P9">
+        <v>12.23493549027012</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.89063301903777</v>
+        <v>25.1081119464491</v>
       </c>
       <c r="C10">
-        <v>7.905989859138447</v>
+        <v>18.75232550342205</v>
       </c>
       <c r="D10">
-        <v>2.2300293076694</v>
+        <v>4.238540564682952</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.5740544749155</v>
+        <v>27.73124654914371</v>
       </c>
       <c r="G10">
-        <v>2.131551417973307</v>
+        <v>39.25627805149544</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.801349846213046</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.25466665870018</v>
       </c>
       <c r="J10">
-        <v>6.298720620840569</v>
+        <v>11.57412899868901</v>
       </c>
       <c r="K10">
-        <v>17.07480379316753</v>
+        <v>17.72965471337097</v>
       </c>
       <c r="L10">
-        <v>7.627471024127209</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.73228607656285</v>
+        <v>7.969507674321921</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.83868983794413</v>
+      </c>
+      <c r="P10">
+        <v>11.98098158078925</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.55476298635126</v>
+        <v>25.48581268310626</v>
       </c>
       <c r="C11">
-        <v>8.196760503534023</v>
+        <v>20.02413335975933</v>
       </c>
       <c r="D11">
-        <v>2.256464444166657</v>
+        <v>4.416358718070779</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.30704449492865</v>
+        <v>27.17582309814322</v>
       </c>
       <c r="G11">
-        <v>2.124747030347971</v>
+        <v>38.09602457840763</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.747808505170783</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.348850398222534</v>
       </c>
       <c r="J11">
-        <v>6.283073063009188</v>
+        <v>11.2548513943665</v>
       </c>
       <c r="K11">
-        <v>17.57688593644693</v>
+        <v>16.84205568581979</v>
       </c>
       <c r="L11">
-        <v>7.732511987162441</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.66875199760841</v>
+        <v>7.135723942784962</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.13292881413691</v>
+      </c>
+      <c r="P11">
+        <v>11.91313919037775</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.80430638145264</v>
+        <v>25.41898042898911</v>
       </c>
       <c r="C12">
-        <v>8.305214154467894</v>
+        <v>20.79477675513292</v>
       </c>
       <c r="D12">
-        <v>2.266297410754788</v>
+        <v>4.55505067897586</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.58784449452231</v>
+        <v>26.42352183187075</v>
       </c>
       <c r="G12">
-        <v>2.122180692342504</v>
+        <v>36.69622774637386</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.05680395724402</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.364060923397852</v>
       </c>
       <c r="J12">
-        <v>6.277446397210729</v>
+        <v>10.92947099666697</v>
       </c>
       <c r="K12">
-        <v>17.7657642604991</v>
+        <v>16.07090671501271</v>
       </c>
       <c r="L12">
-        <v>7.772732711054317</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.64571101623069</v>
+        <v>6.548206560041916</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.36333343377003</v>
+      </c>
+      <c r="P12">
+        <v>11.94412921145906</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.7506498729287</v>
+        <v>24.98075881765896</v>
       </c>
       <c r="C13">
-        <v>8.281929208408929</v>
+        <v>21.27025320505183</v>
       </c>
       <c r="D13">
-        <v>2.264187654252997</v>
+        <v>4.674704781352507</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.52722422765746</v>
+        <v>25.40349696924554</v>
       </c>
       <c r="G13">
-        <v>2.12273298350415</v>
+        <v>34.89811362436444</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.468709894003775</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.322299755323892</v>
       </c>
       <c r="J13">
-        <v>6.278644757434392</v>
+        <v>10.55699334937383</v>
       </c>
       <c r="K13">
-        <v>17.72514192120012</v>
+        <v>15.30116420102839</v>
       </c>
       <c r="L13">
-        <v>7.764050725233278</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.65062692662161</v>
+        <v>6.151804105061168</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>12.47089559842231</v>
+      </c>
+      <c r="P13">
+        <v>12.04663638817311</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.57533229992772</v>
+        <v>24.49510438203691</v>
       </c>
       <c r="C14">
-        <v>8.205715818760442</v>
+        <v>21.48189982996458</v>
       </c>
       <c r="D14">
-        <v>2.257276985104667</v>
+        <v>4.751956245197371</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.33008087313367</v>
+        <v>24.547547379689</v>
       </c>
       <c r="G14">
-        <v>2.124535704794817</v>
+        <v>33.42014594971567</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.497243501144409</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.268440193452396</v>
       </c>
       <c r="J14">
-        <v>6.282604110708588</v>
+        <v>10.27029948422913</v>
       </c>
       <c r="K14">
-        <v>17.59245026864866</v>
+        <v>14.75996831616516</v>
       </c>
       <c r="L14">
-        <v>7.735812077785144</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.66683560603549</v>
+        <v>6.009165460226291</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>11.78004995696535</v>
+      </c>
+      <c r="P14">
+        <v>12.15266575054579</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.46769050689022</v>
+        <v>24.28912678032598</v>
       </c>
       <c r="C15">
-        <v>8.158819454987569</v>
+        <v>21.47661625175081</v>
       </c>
       <c r="D15">
-        <v>2.253020784728871</v>
+        <v>4.766517322606405</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.20974799533563</v>
+        <v>24.26956439413949</v>
       </c>
       <c r="G15">
-        <v>2.125641188370883</v>
+        <v>32.95195066152164</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.735739796733159</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.243647240291879</v>
       </c>
       <c r="J15">
-        <v>6.285068521699542</v>
+        <v>10.18713693523292</v>
       </c>
       <c r="K15">
-        <v>17.51100922908418</v>
+        <v>14.62167167671084</v>
       </c>
       <c r="L15">
-        <v>7.718572877574633</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.67689849376465</v>
+        <v>5.991375672879637</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>11.58278550969958</v>
+      </c>
+      <c r="P15">
+        <v>12.18965935314135</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.84696011664196</v>
+        <v>23.51347898027677</v>
       </c>
       <c r="C16">
-        <v>7.886752037232998</v>
+        <v>20.84050222778979</v>
       </c>
       <c r="D16">
-        <v>2.228277079335441</v>
+        <v>4.700088189346245</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>44.5266005156131</v>
+        <v>23.75583274096615</v>
       </c>
       <c r="G16">
-        <v>2.131997693929853</v>
+        <v>32.1868452155231</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.531216349509251</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.118940074002679</v>
       </c>
       <c r="J16">
-        <v>6.299784503826116</v>
+        <v>10.1112425944495</v>
       </c>
       <c r="K16">
-        <v>17.04181859424066</v>
+        <v>14.64394388853794</v>
       </c>
       <c r="L16">
-        <v>7.620668568976767</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.7365769735635</v>
+        <v>5.968077992692444</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>11.3606631748634</v>
+      </c>
+      <c r="P16">
+        <v>12.26218804670752</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.46274008702882</v>
+        <v>23.17661644964874</v>
       </c>
       <c r="C17">
-        <v>7.716828252257043</v>
+        <v>20.22333415647258</v>
       </c>
       <c r="D17">
-        <v>2.212785575503696</v>
+        <v>4.606529631557096</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>44.11320026716518</v>
+        <v>23.83406928551869</v>
       </c>
       <c r="G17">
-        <v>2.135918463989383</v>
+        <v>32.41879835514565</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.796584115779986</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.051866365149254</v>
       </c>
       <c r="J17">
-        <v>6.309334179877267</v>
+        <v>10.20878599649168</v>
       </c>
       <c r="K17">
-        <v>16.75180094748709</v>
+        <v>14.94776272269872</v>
       </c>
       <c r="L17">
-        <v>7.561400377786411</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.77493011574143</v>
+        <v>6.002886397780235</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>11.56954000808145</v>
+      </c>
+      <c r="P17">
+        <v>12.26257905826285</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.24050962605241</v>
+        <v>23.20584649356468</v>
       </c>
       <c r="C18">
-        <v>7.617962597241477</v>
+        <v>19.54803910270033</v>
       </c>
       <c r="D18">
-        <v>2.203761874631385</v>
+        <v>4.481419262873098</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>43.87749692915372</v>
+        <v>24.45308250581289</v>
       </c>
       <c r="G18">
-        <v>2.138182218151198</v>
+        <v>33.57775469851671</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.542650420292118</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.026184959762239</v>
       </c>
       <c r="J18">
-        <v>6.315015777175328</v>
+        <v>10.47284567167821</v>
       </c>
       <c r="K18">
-        <v>16.58420451131953</v>
+        <v>15.55075194747372</v>
       </c>
       <c r="L18">
-        <v>7.52760333360826</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.79760995750671</v>
+        <v>6.221096144406093</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>12.18046935352421</v>
+      </c>
+      <c r="P18">
+        <v>12.2139312063099</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.1650560928243</v>
+        <v>23.49751971062832</v>
       </c>
       <c r="C19">
-        <v>7.584292451458982</v>
+        <v>18.92353557911707</v>
       </c>
       <c r="D19">
-        <v>2.20068725499427</v>
+        <v>4.356273773210244</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>43.79804660634278</v>
+        <v>25.38979180540028</v>
       </c>
       <c r="G19">
-        <v>2.138950243650837</v>
+        <v>35.26880572504837</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.047819167485287</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.046514192058727</v>
       </c>
       <c r="J19">
-        <v>6.316971640862401</v>
+        <v>10.82782324328166</v>
       </c>
       <c r="K19">
-        <v>16.52732619126319</v>
+        <v>16.31725516422465</v>
       </c>
       <c r="L19">
-        <v>7.51621059161291</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.80539363650363</v>
+        <v>6.735680297021629</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.05240905042092</v>
+      </c>
+      <c r="P19">
+        <v>12.15526559080326</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.50376955468627</v>
+        <v>24.54658783708633</v>
       </c>
       <c r="C20">
-        <v>7.735033432249315</v>
+        <v>18.43724320815958</v>
       </c>
       <c r="D20">
-        <v>2.214446438494343</v>
+        <v>4.221502052991067</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>44.15699248717967</v>
+        <v>27.24294578464383</v>
       </c>
       <c r="G20">
-        <v>2.13550021601925</v>
+        <v>38.48782352632441</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.708398306777358</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.180250168547901</v>
       </c>
       <c r="J20">
-        <v>6.308297988479364</v>
+        <v>11.45538468269597</v>
       </c>
       <c r="K20">
-        <v>16.78275560423443</v>
+        <v>17.5788319198572</v>
       </c>
       <c r="L20">
-        <v>7.567679338980327</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.77078273659651</v>
+        <v>7.912692625517102</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.60217954457185</v>
+      </c>
+      <c r="P20">
+        <v>12.04777992541282</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.6268804492212</v>
+        <v>26.10392895828602</v>
       </c>
       <c r="C21">
-        <v>8.228145897614583</v>
+        <v>19.37340948706642</v>
       </c>
       <c r="D21">
-        <v>2.259311660605897</v>
+        <v>4.275453624183958</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.38789833779713</v>
+        <v>28.60509139993081</v>
       </c>
       <c r="G21">
-        <v>2.124005943278716</v>
+        <v>40.61637707164107</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.978636704870488</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.425976985949511</v>
       </c>
       <c r="J21">
-        <v>6.281432967127251</v>
+        <v>11.78274586001612</v>
       </c>
       <c r="K21">
-        <v>17.63145915275549</v>
+        <v>17.97650096983423</v>
       </c>
       <c r="L21">
-        <v>7.744094411172142</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.66204654757342</v>
+        <v>8.245377494284273</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.40944250681349</v>
+      </c>
+      <c r="P21">
+        <v>11.85226090910491</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.34954441493208</v>
+        <v>27.06751424890503</v>
       </c>
       <c r="C22">
-        <v>8.540813084361925</v>
+        <v>19.98408214496691</v>
       </c>
       <c r="D22">
-        <v>2.287597924825393</v>
+        <v>4.313107308487967</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>46.21125484602113</v>
+        <v>29.44595736909217</v>
       </c>
       <c r="G22">
-        <v>2.116552621584264</v>
+        <v>41.91715645298135</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.147800904566139</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.578438372786243</v>
       </c>
       <c r="J22">
-        <v>6.265621289195201</v>
+        <v>11.98555240803119</v>
       </c>
       <c r="K22">
-        <v>18.1788539875656</v>
+        <v>18.21242575738849</v>
       </c>
       <c r="L22">
-        <v>7.861980689209652</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.59695016169854</v>
+        <v>8.398395653097095</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>15.86391134722857</v>
+      </c>
+      <c r="P22">
+        <v>11.72568523417894</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.964892397762</v>
+        <v>26.57460835079311</v>
       </c>
       <c r="C23">
-        <v>8.374792650003361</v>
+        <v>19.64263730081809</v>
       </c>
       <c r="D23">
-        <v>2.272596945119147</v>
+        <v>4.28979542951217</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>45.77005970141769</v>
+        <v>29.03193448474359</v>
       </c>
       <c r="G23">
-        <v>2.120526140364302</v>
+        <v>41.28474703960885</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.058977379184808</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.49442971510743</v>
       </c>
       <c r="J23">
-        <v>6.273897205533037</v>
+        <v>11.88993291563893</v>
       </c>
       <c r="K23">
-        <v>17.88737301783636</v>
+        <v>18.11447274371131</v>
       </c>
       <c r="L23">
-        <v>7.798825821972666</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.63112397368929</v>
+        <v>8.31669418281329</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.62909645193244</v>
+      </c>
+      <c r="P23">
+        <v>11.79282588137504</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.48522429280365</v>
+        <v>24.59190257973501</v>
       </c>
       <c r="C24">
-        <v>7.726806532579253</v>
+        <v>18.33564138226557</v>
       </c>
       <c r="D24">
-        <v>2.213695927801181</v>
+        <v>4.204879209244994</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>44.13718790492533</v>
+        <v>27.38392730428583</v>
       </c>
       <c r="G24">
-        <v>2.135689275672572</v>
+        <v>38.74393934900306</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.714526799856125</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.175848964298834</v>
       </c>
       <c r="J24">
-        <v>6.308765855250672</v>
+        <v>11.51102416898186</v>
       </c>
       <c r="K24">
-        <v>16.76876368311831</v>
+        <v>17.70623233506425</v>
       </c>
       <c r="L24">
-        <v>7.564839757490217</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.77265580881306</v>
+        <v>8.001305264208023</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.69766528318065</v>
+      </c>
+      <c r="P24">
+        <v>12.04934959183788</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.84244710025232</v>
+        <v>22.26200435826304</v>
       </c>
       <c r="C25">
-        <v>6.984444828456827</v>
+        <v>16.83579200110107</v>
       </c>
       <c r="D25">
-        <v>2.145846170782106</v>
+        <v>4.108993487372441</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.45509750948511</v>
+        <v>25.55577218601762</v>
       </c>
       <c r="G25">
-        <v>2.152383610841807</v>
+        <v>35.90220040681922</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.79791132981647</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.82243116149084</v>
       </c>
       <c r="J25">
-        <v>6.353568485866763</v>
+        <v>11.11154433235867</v>
       </c>
       <c r="K25">
-        <v>15.53257809765524</v>
+        <v>17.28458564633608</v>
       </c>
       <c r="L25">
-        <v>7.32365968759937</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.94883145848488</v>
+        <v>7.647685431435089</v>
       </c>
       <c r="O25">
+        <v>13.6265381311348</v>
+      </c>
+      <c r="P25">
+        <v>12.32993889239813</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.43089098275077</v>
+        <v>19.90273784946293</v>
       </c>
       <c r="C2">
-        <v>15.60268501880057</v>
+        <v>15.93275099107204</v>
       </c>
       <c r="D2">
-        <v>4.026980749586192</v>
+        <v>4.096494460364436</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24.2682066257347</v>
+        <v>23.2064658505447</v>
       </c>
       <c r="G2">
-        <v>33.90328548898452</v>
+        <v>31.48666529703114</v>
       </c>
       <c r="H2">
-        <v>2.098851262690007</v>
+        <v>2.066208808501257</v>
       </c>
       <c r="I2">
-        <v>2.545030878769302</v>
+        <v>2.58789670344204</v>
       </c>
       <c r="J2">
-        <v>10.85982540389294</v>
+        <v>10.96439190295529</v>
       </c>
       <c r="K2">
-        <v>17.06274171102986</v>
+        <v>16.14053356555458</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.7161815198995</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.29146727522991</v>
       </c>
       <c r="N2">
-        <v>7.375670193321142</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.80128396474152</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.54143282901768</v>
+        <v>7.442613429654629</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.59544872751167</v>
+      </c>
+      <c r="R2">
+        <v>12.47812342202365</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.05619344258621</v>
+        <v>18.60274373311195</v>
       </c>
       <c r="C3">
-        <v>14.74570447873646</v>
+        <v>14.99700519112197</v>
       </c>
       <c r="D3">
-        <v>3.973807191379774</v>
+        <v>4.014804238277899</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.32547282722283</v>
+        <v>22.37870549051021</v>
       </c>
       <c r="G3">
-        <v>32.41361792728237</v>
+        <v>30.19705577989746</v>
       </c>
       <c r="H3">
-        <v>2.313443321344812</v>
+        <v>2.261326757088058</v>
       </c>
       <c r="I3">
-        <v>2.593996227259908</v>
+        <v>2.529981250344181</v>
       </c>
       <c r="J3">
-        <v>10.67604767769135</v>
+        <v>10.79090461951398</v>
       </c>
       <c r="K3">
-        <v>16.88042141347963</v>
+        <v>16.04305300198322</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.76901213440606</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.0809825794665</v>
       </c>
       <c r="N3">
-        <v>7.185296190705354</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>12.20021790665625</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.68737344774585</v>
+        <v>7.264173069330869</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.01595209133674</v>
+      </c>
+      <c r="R3">
+        <v>12.60385253763917</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.16031293746613</v>
+        <v>17.75311312021056</v>
       </c>
       <c r="C4">
-        <v>14.19664882359974</v>
+        <v>14.39635648444158</v>
       </c>
       <c r="D4">
-        <v>3.940248900907756</v>
+        <v>3.963539544796163</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.73783748300032</v>
+        <v>21.86220748143658</v>
       </c>
       <c r="G4">
-        <v>31.47797710933541</v>
+        <v>29.39006370241427</v>
       </c>
       <c r="H4">
-        <v>2.449749717965548</v>
+        <v>2.385373010316926</v>
       </c>
       <c r="I4">
-        <v>2.720301703007513</v>
+        <v>2.640611740645376</v>
       </c>
       <c r="J4">
-        <v>10.56558213644812</v>
+        <v>10.6837163881973</v>
       </c>
       <c r="K4">
-        <v>16.77170504857115</v>
+        <v>15.98527609675473</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.79921607146606</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.971846769324461</v>
       </c>
       <c r="N4">
-        <v>7.065390151028733</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11.81586976754118</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.77841015615303</v>
+        <v>7.152100916089797</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.64503794266328</v>
+      </c>
+      <c r="R4">
+        <v>12.68300599559208</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.7893594983011</v>
+        <v>17.3878343014038</v>
       </c>
       <c r="C5">
-        <v>13.97307067532862</v>
+        <v>14.15114602620823</v>
       </c>
       <c r="D5">
-        <v>3.927132224085465</v>
+        <v>3.943299550464384</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22.48576895058715</v>
+        <v>21.63951090495436</v>
       </c>
       <c r="G5">
-        <v>31.07239538906958</v>
+        <v>29.0386589027677</v>
       </c>
       <c r="H5">
-        <v>2.50684118917171</v>
+        <v>2.43736731430988</v>
       </c>
       <c r="I5">
-        <v>2.776179310699696</v>
+        <v>2.690549773067116</v>
       </c>
       <c r="J5">
-        <v>10.51754223238928</v>
+        <v>10.63641706033632</v>
       </c>
       <c r="K5">
-        <v>16.72040760526977</v>
+        <v>15.95492202387457</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.804764004581</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.92771379428026</v>
       </c>
       <c r="N5">
-        <v>7.015849274278875</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>11.65350647575494</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.81564775754553</v>
+        <v>7.105889825592629</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.48824083576257</v>
+      </c>
+      <c r="R5">
+        <v>12.71577116659134</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.71937250178904</v>
+        <v>17.318998570082</v>
       </c>
       <c r="C6">
-        <v>13.94278118281655</v>
+        <v>14.11744501566972</v>
       </c>
       <c r="D6">
-        <v>3.925905786018499</v>
+        <v>3.941052762531325</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>22.43069339303925</v>
+        <v>21.58970449611158</v>
       </c>
       <c r="G6">
-        <v>30.98088361215339</v>
+        <v>28.95671051163966</v>
       </c>
       <c r="H6">
-        <v>2.516858796075144</v>
+        <v>2.446507460086875</v>
       </c>
       <c r="I6">
-        <v>2.789545048050859</v>
+        <v>2.703590130440874</v>
       </c>
       <c r="J6">
-        <v>10.50514364069547</v>
+        <v>10.62429937078368</v>
       </c>
       <c r="K6">
-        <v>16.70239760881826</v>
+        <v>15.94097690709531</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.79809142676598</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.914722267109711</v>
       </c>
       <c r="N6">
-        <v>7.007646358662785</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>11.62382286612554</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.82157858694207</v>
+        <v>7.09825723654737</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.45954822903476</v>
+      </c>
+      <c r="R6">
+        <v>12.72126950402415</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.13498329159579</v>
+        <v>17.71991566083629</v>
       </c>
       <c r="C7">
-        <v>14.2129018380188</v>
+        <v>14.39916526980386</v>
       </c>
       <c r="D7">
-        <v>3.942722939387581</v>
+        <v>3.968660577049194</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.6990887206343</v>
+        <v>21.80123521899957</v>
       </c>
       <c r="G7">
-        <v>31.40824504315303</v>
+        <v>29.40748236116239</v>
       </c>
       <c r="H7">
-        <v>2.451770562982916</v>
+        <v>2.387833906613005</v>
       </c>
       <c r="I7">
-        <v>2.731721867532718</v>
+        <v>2.654417142879579</v>
       </c>
       <c r="J7">
-        <v>10.55281987280815</v>
+        <v>10.61673490921852</v>
       </c>
       <c r="K7">
-        <v>16.74504635446887</v>
+        <v>15.95018239994584</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.77035963712433</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.947422341261115</v>
       </c>
       <c r="N7">
-        <v>7.064916802859765</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>11.80696235412776</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.77823092716183</v>
+        <v>7.151737089041998</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.63353963970287</v>
+      </c>
+      <c r="R7">
+        <v>12.68377090382315</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.94327507833875</v>
+        <v>19.4147211911269</v>
       </c>
       <c r="C8">
-        <v>15.3358884887855</v>
+        <v>15.59746229381884</v>
       </c>
       <c r="D8">
-        <v>4.012407409491356</v>
+        <v>4.080452614641357</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.90053668024263</v>
+        <v>22.80448045506216</v>
       </c>
       <c r="G8">
-        <v>33.31366873201806</v>
+        <v>31.2356732835153</v>
       </c>
       <c r="H8">
-        <v>2.17348984872315</v>
+        <v>2.135910672097676</v>
       </c>
       <c r="I8">
-        <v>2.482863134046754</v>
+        <v>2.532984758109372</v>
       </c>
       <c r="J8">
-        <v>10.78029495596566</v>
+        <v>10.71219283745974</v>
       </c>
       <c r="K8">
-        <v>16.96534484189941</v>
+        <v>16.04098062877477</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.6829934725446</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.16634934903136</v>
       </c>
       <c r="N8">
-        <v>7.310964503321629</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.58887053405607</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.59088751098791</v>
+        <v>7.382157933936252</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.38173747728197</v>
+      </c>
+      <c r="R8">
+        <v>12.5227308712788</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.10224082456433</v>
+        <v>22.39601102863064</v>
       </c>
       <c r="C9">
-        <v>17.32389293520523</v>
+        <v>17.7566249182223</v>
       </c>
       <c r="D9">
-        <v>4.136898130786957</v>
+        <v>4.276327897949794</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.23340215357134</v>
+        <v>24.84154723370561</v>
       </c>
       <c r="G9">
-        <v>36.97173181745421</v>
+        <v>34.47348889075256</v>
       </c>
       <c r="H9">
-        <v>1.660823303866783</v>
+        <v>1.670730867076752</v>
       </c>
       <c r="I9">
-        <v>2.938875913458371</v>
+        <v>2.930741548455294</v>
       </c>
       <c r="J9">
-        <v>11.26520543282825</v>
+        <v>11.112514263263</v>
       </c>
       <c r="K9">
-        <v>17.46874019582508</v>
+        <v>16.3170431787191</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.55886845914776</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.80515304476358</v>
       </c>
       <c r="N9">
-        <v>7.768084983610532</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>14.00643316292528</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.23493549027012</v>
+        <v>7.812306020154075</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.74517327083183</v>
+      </c>
+      <c r="R9">
+        <v>12.22075368794759</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.1081119464491</v>
+        <v>24.25251497451443</v>
       </c>
       <c r="C10">
-        <v>18.75232550342205</v>
+        <v>19.22639459252668</v>
       </c>
       <c r="D10">
-        <v>4.238540564682952</v>
+        <v>4.443786200928235</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>27.73124654914371</v>
+        <v>26.03098150127812</v>
       </c>
       <c r="G10">
-        <v>39.25627805149544</v>
+        <v>36.91798113803089</v>
       </c>
       <c r="H10">
-        <v>1.801349846213046</v>
+        <v>1.757158122504305</v>
       </c>
       <c r="I10">
-        <v>3.25466665870018</v>
+        <v>3.204048663178483</v>
       </c>
       <c r="J10">
-        <v>11.57412899868901</v>
+        <v>11.06357134876404</v>
       </c>
       <c r="K10">
-        <v>17.72965471337097</v>
+        <v>16.36945234885891</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.34320574108936</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.21886426296337</v>
       </c>
       <c r="N10">
-        <v>7.969507674321921</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>14.83868983794413</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>11.98098158078925</v>
+        <v>7.995425378229652</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.52902495551206</v>
+      </c>
+      <c r="R10">
+        <v>12.0202872745801</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.48581268310626</v>
+        <v>24.57304198599445</v>
       </c>
       <c r="C11">
-        <v>20.02413335975933</v>
+        <v>20.35845285106054</v>
       </c>
       <c r="D11">
-        <v>4.416358718070779</v>
+        <v>4.684720312818621</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.17582309814322</v>
+        <v>25.28349144754235</v>
       </c>
       <c r="G11">
-        <v>38.09602457840763</v>
+        <v>36.77098854858906</v>
       </c>
       <c r="H11">
-        <v>2.747808505170783</v>
+        <v>2.710703621260295</v>
       </c>
       <c r="I11">
-        <v>3.348850398222534</v>
+        <v>3.283773226673349</v>
       </c>
       <c r="J11">
-        <v>11.2548513943665</v>
+        <v>10.18271902689935</v>
       </c>
       <c r="K11">
-        <v>16.84205568581979</v>
+        <v>15.45446605870313</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.60118335246133</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.63189773045844</v>
       </c>
       <c r="N11">
-        <v>7.135723942784962</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>14.13292881413691</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>11.91313919037775</v>
+        <v>7.140325728656293</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>13.80852216409819</v>
+      </c>
+      <c r="R11">
+        <v>12.04048781207901</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.41898042898911</v>
+        <v>24.51122658802312</v>
       </c>
       <c r="C12">
-        <v>20.79477675513292</v>
+        <v>21.03515633796795</v>
       </c>
       <c r="D12">
-        <v>4.55505067897586</v>
+        <v>4.852003842952039</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>26.42352183187075</v>
+        <v>24.50362729829097</v>
       </c>
       <c r="G12">
-        <v>36.69622774637386</v>
+        <v>35.94747026089324</v>
       </c>
       <c r="H12">
-        <v>4.05680395724402</v>
+        <v>4.031104908018072</v>
       </c>
       <c r="I12">
-        <v>3.364060923397852</v>
+        <v>3.29512174016577</v>
       </c>
       <c r="J12">
-        <v>10.92947099666697</v>
+        <v>9.65113633748404</v>
       </c>
       <c r="K12">
-        <v>16.07090671501271</v>
+        <v>14.74381741989034</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.08663127460434</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10.09313259046742</v>
       </c>
       <c r="N12">
-        <v>6.548206560041916</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>13.36333343377003</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>11.94412921145906</v>
+        <v>6.53424730344986</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.04530787146549</v>
+      </c>
+      <c r="R12">
+        <v>12.12804198723937</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.98075881765896</v>
+        <v>24.14377070142619</v>
       </c>
       <c r="C13">
-        <v>21.27025320505183</v>
+        <v>21.47527945434934</v>
       </c>
       <c r="D13">
-        <v>4.674704781352507</v>
+        <v>4.966006997977171</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.40349696924554</v>
+        <v>23.63420375307699</v>
       </c>
       <c r="G13">
-        <v>34.89811362436444</v>
+        <v>34.25523001931234</v>
       </c>
       <c r="H13">
-        <v>5.468709894003775</v>
+        <v>5.483892946238827</v>
       </c>
       <c r="I13">
-        <v>3.322299755323892</v>
+        <v>3.26030951192005</v>
       </c>
       <c r="J13">
-        <v>10.55699334937383</v>
+        <v>9.431430060680023</v>
       </c>
       <c r="K13">
-        <v>15.30116420102839</v>
+        <v>14.12935751333032</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.69037680663192</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.547700433200641</v>
       </c>
       <c r="N13">
-        <v>6.151804105061168</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>12.47089559842231</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.04663638817311</v>
+        <v>6.123825197571388</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>12.1817270222325</v>
+      </c>
+      <c r="R13">
+        <v>12.25635903064994</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.49510438203691</v>
+        <v>23.73787112996581</v>
       </c>
       <c r="C14">
-        <v>21.48189982996458</v>
+        <v>21.68804414102046</v>
       </c>
       <c r="D14">
-        <v>4.751956245197371</v>
+        <v>5.022678661763876</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.547547379689</v>
+        <v>22.96406414754897</v>
       </c>
       <c r="G14">
-        <v>33.42014594971567</v>
+        <v>32.64646751716949</v>
       </c>
       <c r="H14">
-        <v>6.497243501144409</v>
+        <v>6.508591285171894</v>
       </c>
       <c r="I14">
-        <v>3.268440193452396</v>
+        <v>3.216461500855385</v>
       </c>
       <c r="J14">
-        <v>10.27029948422913</v>
+        <v>9.40149933301948</v>
       </c>
       <c r="K14">
-        <v>14.75996831616516</v>
+        <v>13.73613187565726</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.45714747107799</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.159454706898066</v>
       </c>
       <c r="N14">
-        <v>6.009165460226291</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>11.78004995696535</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.15266575054579</v>
+        <v>5.975751228480494</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>11.52105735657959</v>
+      </c>
+      <c r="R14">
+        <v>12.36334882324073</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.28912678032598</v>
+        <v>23.56464718173348</v>
       </c>
       <c r="C15">
-        <v>21.47661625175081</v>
+        <v>21.69449421081974</v>
       </c>
       <c r="D15">
-        <v>4.766517322606405</v>
+        <v>5.02548391695347</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.26956439413949</v>
+        <v>22.76613423367631</v>
       </c>
       <c r="G15">
-        <v>32.95195066152164</v>
+        <v>32.05892012097016</v>
       </c>
       <c r="H15">
-        <v>6.735739796733159</v>
+        <v>6.745952461241224</v>
       </c>
       <c r="I15">
-        <v>3.243647240291879</v>
+        <v>3.196956308215188</v>
       </c>
       <c r="J15">
-        <v>10.18713693523292</v>
+        <v>9.444760812680402</v>
       </c>
       <c r="K15">
-        <v>14.62167167671084</v>
+        <v>13.65053419427127</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.41450675372354</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.057950755903816</v>
       </c>
       <c r="N15">
-        <v>5.991375672879637</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>11.58278550969958</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.18965935314135</v>
+        <v>5.958720794843964</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.33540459514522</v>
+      </c>
+      <c r="R15">
+        <v>12.39422128355222</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.51347898027677</v>
+        <v>22.90103132940195</v>
       </c>
       <c r="C16">
-        <v>20.84050222778979</v>
+        <v>21.15116733750813</v>
       </c>
       <c r="D16">
-        <v>4.700088189346245</v>
+        <v>4.903149902180715</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23.75583274096615</v>
+        <v>22.54006845867728</v>
       </c>
       <c r="G16">
-        <v>32.1868452155231</v>
+        <v>30.57303524645443</v>
       </c>
       <c r="H16">
-        <v>6.531216349509251</v>
+        <v>6.537944579339845</v>
       </c>
       <c r="I16">
-        <v>3.118940074002679</v>
+        <v>3.094539452686421</v>
       </c>
       <c r="J16">
-        <v>10.1112425944495</v>
+        <v>9.900706107182192</v>
       </c>
       <c r="K16">
-        <v>14.64394388853794</v>
+        <v>13.8063180570604</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.58941909896156</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.049744945335679</v>
       </c>
       <c r="N16">
-        <v>5.968077992692444</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>11.3606631748634</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.26218804670752</v>
+        <v>5.952107376647933</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11.14852255231867</v>
+      </c>
+      <c r="R16">
+        <v>12.4146737218251</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.17661644964874</v>
+        <v>22.59658445139184</v>
       </c>
       <c r="C17">
-        <v>20.22333415647258</v>
+        <v>20.58650582806333</v>
       </c>
       <c r="D17">
-        <v>4.606529631557096</v>
+        <v>4.784396318874605</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>23.83406928551869</v>
+        <v>22.70700683084763</v>
       </c>
       <c r="G17">
-        <v>32.41879835514565</v>
+        <v>30.43164398238534</v>
       </c>
       <c r="H17">
-        <v>5.796584115779986</v>
+        <v>5.801785286103842</v>
       </c>
       <c r="I17">
-        <v>3.051866365149254</v>
+        <v>3.038568162252429</v>
       </c>
       <c r="J17">
-        <v>10.20878599649168</v>
+        <v>10.20752106581868</v>
       </c>
       <c r="K17">
-        <v>14.94776272269872</v>
+        <v>14.12434298210536</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.84941993961705</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.237894541921406</v>
       </c>
       <c r="N17">
-        <v>6.002886397780235</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>11.56954000808145</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.26257905826285</v>
+        <v>6.000433274252684</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>11.36502158655715</v>
+      </c>
+      <c r="R17">
+        <v>12.38217769767692</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.20584649356468</v>
+        <v>22.60594329473419</v>
       </c>
       <c r="C18">
-        <v>19.54803910270033</v>
+        <v>19.95739453050168</v>
       </c>
       <c r="D18">
-        <v>4.481419262873098</v>
+        <v>4.649208448737554</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.45308250581289</v>
+        <v>23.2960843728505</v>
       </c>
       <c r="G18">
-        <v>33.57775469851671</v>
+        <v>31.31992264358948</v>
       </c>
       <c r="H18">
-        <v>4.542650420292118</v>
+        <v>4.548342913396512</v>
       </c>
       <c r="I18">
-        <v>3.026184959762239</v>
+        <v>3.015041128519437</v>
       </c>
       <c r="J18">
-        <v>10.47284567167821</v>
+        <v>10.52556554541246</v>
       </c>
       <c r="K18">
-        <v>15.55075194747372</v>
+        <v>14.66030285181529</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.24767678732061</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.641218357340907</v>
       </c>
       <c r="N18">
-        <v>6.221096144406093</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>12.18046935352421</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.2139312063099</v>
+        <v>6.231406155852413</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.96554552753687</v>
+      </c>
+      <c r="R18">
+        <v>12.30488963316746</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.49751971062832</v>
+        <v>22.8445150122077</v>
       </c>
       <c r="C19">
-        <v>18.92353557911707</v>
+        <v>19.37870850660449</v>
       </c>
       <c r="D19">
-        <v>4.356273773210244</v>
+        <v>4.521922812410473</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>25.38979180540028</v>
+        <v>24.13141379110663</v>
       </c>
       <c r="G19">
-        <v>35.26880572504837</v>
+        <v>32.78090193679243</v>
       </c>
       <c r="H19">
-        <v>3.047819167485287</v>
+        <v>3.057457389805873</v>
       </c>
       <c r="I19">
-        <v>3.046514192058727</v>
+        <v>3.032816288945464</v>
       </c>
       <c r="J19">
-        <v>10.82782324328166</v>
+        <v>10.85056242510974</v>
       </c>
       <c r="K19">
-        <v>16.31725516422465</v>
+        <v>15.31056562821682</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.71469928653456</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.16459386585264</v>
       </c>
       <c r="N19">
-        <v>6.735680297021629</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>13.05240905042092</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.15526559080326</v>
+        <v>6.757294830583607</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.81590950107765</v>
+      </c>
+      <c r="R19">
+        <v>12.2176635937328</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.54658783708633</v>
+        <v>23.75480311119089</v>
       </c>
       <c r="C20">
-        <v>18.43724320815958</v>
+        <v>18.94134909951651</v>
       </c>
       <c r="D20">
-        <v>4.221502052991067</v>
+        <v>4.40258219407594</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>27.24294578464383</v>
+        <v>25.69813032001835</v>
       </c>
       <c r="G20">
-        <v>38.48782352632441</v>
+        <v>35.85859116682803</v>
       </c>
       <c r="H20">
-        <v>1.708398306777358</v>
+        <v>1.675076702052651</v>
       </c>
       <c r="I20">
-        <v>3.180250168547901</v>
+        <v>3.146478190204359</v>
       </c>
       <c r="J20">
-        <v>11.45538468269597</v>
+        <v>11.22177805641828</v>
       </c>
       <c r="K20">
-        <v>17.5788319198572</v>
+        <v>16.31495233764689</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.37149160413743</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.07366316273385</v>
       </c>
       <c r="N20">
-        <v>7.912692625517102</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>14.60217954457185</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.04777992541282</v>
+        <v>7.94308160283498</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.31410568609754</v>
+      </c>
+      <c r="R20">
+        <v>12.07406138546335</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.10392895828602</v>
+        <v>25.0680852687923</v>
       </c>
       <c r="C21">
-        <v>19.37340948706642</v>
+        <v>19.71405846575709</v>
       </c>
       <c r="D21">
-        <v>4.275453624183958</v>
+        <v>4.550287697031973</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>28.60509139993081</v>
+        <v>26.432668271044</v>
       </c>
       <c r="G21">
-        <v>40.61637707164107</v>
+        <v>39.37419545234192</v>
       </c>
       <c r="H21">
-        <v>1.978636704870488</v>
+        <v>1.909159207233869</v>
       </c>
       <c r="I21">
-        <v>3.425976985949511</v>
+        <v>3.347975494926711</v>
       </c>
       <c r="J21">
-        <v>11.78274586001612</v>
+        <v>10.34282103147975</v>
       </c>
       <c r="K21">
-        <v>17.97650096983423</v>
+        <v>16.33908910027895</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.19397733726557</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.39154457580377</v>
       </c>
       <c r="N21">
-        <v>8.245377494284273</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.40944250681349</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>11.85226090910491</v>
+        <v>8.266493237901804</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.03657735803279</v>
+      </c>
+      <c r="R21">
+        <v>11.92641435519853</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.06751424890503</v>
+        <v>25.87393781274748</v>
       </c>
       <c r="C22">
-        <v>19.98408214496691</v>
+        <v>20.20666993091768</v>
       </c>
       <c r="D22">
-        <v>4.313107308487967</v>
+        <v>4.653060759249686</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>29.44595736909217</v>
+        <v>26.85471764469419</v>
       </c>
       <c r="G22">
-        <v>41.91715645298135</v>
+        <v>41.65761538065919</v>
       </c>
       <c r="H22">
-        <v>2.147800904566139</v>
+        <v>2.055230014697686</v>
       </c>
       <c r="I22">
-        <v>3.578438372786243</v>
+        <v>3.4707968708862</v>
       </c>
       <c r="J22">
-        <v>11.98555240803119</v>
+        <v>9.722598233085442</v>
       </c>
       <c r="K22">
-        <v>18.21242575738849</v>
+        <v>16.32282849010142</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.05551561678296</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.57950971785175</v>
       </c>
       <c r="N22">
-        <v>8.398395653097095</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>15.86391134722857</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>11.72568523417894</v>
+        <v>8.413879097451996</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>15.43542540133737</v>
+      </c>
+      <c r="R22">
+        <v>11.83688541775089</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.57460835079311</v>
+        <v>25.48063502348284</v>
       </c>
       <c r="C23">
-        <v>19.64263730081809</v>
+        <v>19.95455876357401</v>
       </c>
       <c r="D23">
-        <v>4.28979542951217</v>
+        <v>4.587718312042957</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>29.03193448474359</v>
+        <v>26.71341251110726</v>
       </c>
       <c r="G23">
-        <v>41.28474703960885</v>
+        <v>40.3210828233023</v>
       </c>
       <c r="H23">
-        <v>2.058977379184808</v>
+        <v>1.979648915839368</v>
       </c>
       <c r="I23">
-        <v>3.49442971510743</v>
+        <v>3.402334317556519</v>
       </c>
       <c r="J23">
-        <v>11.88993291563893</v>
+        <v>10.18393178348002</v>
       </c>
       <c r="K23">
-        <v>18.11447274371131</v>
+        <v>16.38292172782275</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.16442138954046</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.52147868445915</v>
       </c>
       <c r="N23">
-        <v>8.31669418281329</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.62909645193244</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>11.79282588137504</v>
+        <v>8.334662241446217</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.23593934867368</v>
+      </c>
+      <c r="R23">
+        <v>11.87997943563165</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.59190257973501</v>
+        <v>23.79543466568254</v>
       </c>
       <c r="C24">
-        <v>18.33564138226557</v>
+        <v>18.84390287349248</v>
       </c>
       <c r="D24">
-        <v>4.204879209244994</v>
+        <v>4.383357137982975</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>27.38392730428583</v>
+        <v>25.83105574938693</v>
       </c>
       <c r="G24">
-        <v>38.74393934900306</v>
+        <v>36.08009207983527</v>
       </c>
       <c r="H24">
-        <v>1.714526799856125</v>
+        <v>1.680788344189301</v>
       </c>
       <c r="I24">
-        <v>3.175848964298834</v>
+        <v>3.139591063245668</v>
       </c>
       <c r="J24">
-        <v>11.51102416898186</v>
+        <v>11.28031725262486</v>
       </c>
       <c r="K24">
-        <v>17.70623233506425</v>
+        <v>16.42911421355993</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.45560172527514</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.16235005591929</v>
       </c>
       <c r="N24">
-        <v>8.001305264208023</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>14.69766528318065</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.04934959183788</v>
+        <v>8.03271094746567</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.4076033464817</v>
+      </c>
+      <c r="R24">
+        <v>12.06853551966313</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.26200435826304</v>
+        <v>21.6130968373211</v>
       </c>
       <c r="C25">
-        <v>16.83579200110107</v>
+        <v>17.24272339650823</v>
       </c>
       <c r="D25">
-        <v>4.108993487372441</v>
+        <v>4.226911626579906</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.55577218601762</v>
+        <v>24.27489015408917</v>
       </c>
       <c r="G25">
-        <v>35.90220040681922</v>
+        <v>33.40660228004499</v>
       </c>
       <c r="H25">
-        <v>1.79791132981647</v>
+        <v>1.794320010076551</v>
       </c>
       <c r="I25">
-        <v>2.82243116149084</v>
+        <v>2.832567322067229</v>
       </c>
       <c r="J25">
-        <v>11.11154433235867</v>
+        <v>11.05957330076065</v>
       </c>
       <c r="K25">
-        <v>17.28458564633608</v>
+        <v>16.21265165434305</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.57383836443637</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.5955430803339</v>
       </c>
       <c r="N25">
-        <v>7.647685431435089</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.6265381311348</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.32993889239813</v>
+        <v>7.698758890142504</v>
       </c>
       <c r="Q25">
+        <v>13.38355686017219</v>
+      </c>
+      <c r="R25">
+        <v>12.30186526177291</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
